--- a/99.work/課題・気になる.xlsx
+++ b/99.work/課題・気になる.xlsx
@@ -7,22 +7,21 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="8175"/>
   </bookViews>
   <sheets>
-    <sheet name="memo" sheetId="8" r:id="rId1"/>
-    <sheet name="課題整理_0609" sheetId="5" r:id="rId2"/>
-    <sheet name="「課題・気になる」から転記" sheetId="4" r:id="rId3"/>
-    <sheet name="課題・気になる" sheetId="2" r:id="rId4"/>
-    <sheet name="else" sheetId="9" r:id="rId5"/>
+    <sheet name="課題整理_0609" sheetId="5" r:id="rId1"/>
+    <sheet name="「課題・気になる」から転記" sheetId="4" r:id="rId2"/>
+    <sheet name="課題・気になる" sheetId="2" r:id="rId3"/>
+    <sheet name="else" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">課題・気になる!$A$3:$G$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">課題整理_0609!$B$7:$I$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">課題・気になる!$A$3:$G$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">課題整理_0609!$B$7:$L$29</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="221">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -1798,16 +1797,6 @@
     </rPh>
     <rPh sb="95" eb="97">
       <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設計検討</t>
-    <rPh sb="0" eb="2">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケントウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2539,13 +2528,6 @@
       <t>ベツ</t>
     </rPh>
     <rPh sb="56" eb="58">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設計メモ</t>
-    <rPh sb="0" eb="2">
       <t>セッケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2819,19 +2801,191 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>a</t>
+    <t>対象外</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了日</t>
+    <rPh sb="0" eb="3">
+      <t>カンリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ポップアップの出し方を検討
+　JSでどう実現するのか
+　Spring機能が利用できないか
+</t>
+    <rPh sb="7" eb="8">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>外部設計検討</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部設計検討</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部設計メモ</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～7月1週目</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～7月3週目</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～7月4週目</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～8月1週目</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～8月2週目</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～8月3週目</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～6月4週目</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <rPh sb="0" eb="2">
+      <t>ホリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応工程</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部設計</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製造</t>
+    <rPh sb="0" eb="2">
+      <t>セイゾウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2908,7 +3062,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2924,6 +3078,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3000,7 +3166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3042,11 +3208,97 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3354,64 +3606,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D17"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>207</v>
-      </c>
-      <c r="D14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B2:I29"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3420,35 +3622,36 @@
     <col min="2" max="2" width="6.875" customWidth="1"/>
     <col min="3" max="3" width="44.5" customWidth="1"/>
     <col min="4" max="5" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.625" customWidth="1"/>
-    <col min="8" max="8" width="40.125" customWidth="1"/>
-    <col min="9" max="9" width="61.75" customWidth="1"/>
+    <col min="6" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="9" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.625" customWidth="1"/>
+    <col min="11" max="11" width="40.125" customWidth="1"/>
+    <col min="12" max="12" width="61.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" s="18"/>
       <c r="C3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5" s="18"/>
     </row>
-    <row r="7" spans="2:9" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3456,25 +3659,34 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="K7" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="B8" s="15">
         <f>ROW()-7</f>
         <v>1</v>
@@ -3483,44 +3695,58 @@
         <v>5</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>165</v>
+        <v>203</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>203</v>
       </c>
       <c r="G8" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="J8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="2:9" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="2:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B9" s="15">
-        <f t="shared" ref="B9:B28" si="0">ROW()-7</f>
+        <f t="shared" ref="B9:B29" si="0">ROW()-7</f>
         <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="F9" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="J9" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="2:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3529,21 +3755,28 @@
         <v>8</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>165</v>
+        <v>203</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>203</v>
       </c>
       <c r="G10" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="J10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="2:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3552,21 +3785,28 @@
         <v>9</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>165</v>
+        <v>203</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>203</v>
       </c>
       <c r="G11" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="J11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="2:9" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="2:12" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3575,21 +3815,32 @@
         <v>10</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="G12" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="21">
+        <v>43278</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="J12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="2:9" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="K12" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="2:12" ht="148.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B13" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3598,23 +3849,32 @@
         <v>10</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="F13" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="21">
+        <v>43278</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="J13" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="2:9" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="K13" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="2:12" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B14" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3623,21 +3883,28 @@
         <v>12</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="F14" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="2:9" ht="81" hidden="1" x14ac:dyDescent="0.15">
+      <c r="J14" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="2:12" ht="81" x14ac:dyDescent="0.15">
       <c r="B15" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3646,19 +3913,28 @@
         <v>13</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="F15" s="13"/>
+        <v>197</v>
+      </c>
+      <c r="F15" s="15"/>
       <c r="G15" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="2:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3667,21 +3943,28 @@
         <v>14</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>165</v>
+        <v>203</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>203</v>
       </c>
       <c r="G16" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="B17" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3690,21 +3973,28 @@
         <v>15</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="G17" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J17" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="B18" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3713,23 +4003,32 @@
         <v>16</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>172</v>
+        <v>198</v>
+      </c>
+      <c r="F18" s="21">
+        <v>43278</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>216</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="2:9" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
+        <v>219</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="2:12" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B19" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3738,21 +4037,28 @@
         <v>17</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="F19" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I19" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="2:9" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="J19" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="2:12" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B20" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3761,21 +4067,28 @@
         <v>18</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="F20" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I20" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="2:9" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="J20" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="2:12" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B21" s="15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3784,21 +4097,28 @@
         <v>19</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="F21" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I21" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="2:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+      <c r="J21" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="2:12" ht="54" x14ac:dyDescent="0.15">
       <c r="B22" s="15">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3807,21 +4127,26 @@
         <v>19</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="F22" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I22" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G22" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="2:9" ht="54" hidden="1" x14ac:dyDescent="0.15">
+      <c r="J22" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="2:12" ht="54" x14ac:dyDescent="0.15">
       <c r="B23" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3830,21 +4155,28 @@
         <v>19</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="F23" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I23" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="2:9" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="J23" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+    </row>
+    <row r="24" spans="2:12" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B24" s="15">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3853,21 +4185,28 @@
         <v>19</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="F24" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I24" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G24" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" spans="2:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="J24" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="2:12" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="B25" s="15">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3876,23 +4215,30 @@
         <v>19</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E25" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="K25" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="I25" s="13"/>
-    </row>
-    <row r="26" spans="2:9" ht="108" hidden="1" x14ac:dyDescent="0.15">
+      <c r="L25" s="13"/>
+    </row>
+    <row r="26" spans="2:12" ht="108" x14ac:dyDescent="0.15">
       <c r="B26" s="15">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3901,21 +4247,26 @@
         <v>19</v>
       </c>
       <c r="D26" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I26" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="F26" s="14" t="s">
+      <c r="J26" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="G26" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="13"/>
-    </row>
-    <row r="27" spans="2:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="K26" s="20"/>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="2:12" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B27" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3924,23 +4275,32 @@
         <v>19</v>
       </c>
       <c r="D27" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" s="21">
+        <v>43278</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="G27" s="15" t="s">
+      <c r="K27" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="H27" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="I27" s="13"/>
-    </row>
-    <row r="28" spans="2:9" ht="256.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="L27" s="13"/>
+    </row>
+    <row r="28" spans="2:12" ht="256.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="15">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3949,42 +4309,124 @@
         <v>19</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="15"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
+        <v>217</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="K28" s="20"/>
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="2:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B29" s="15">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B30" s="15"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="B7:I28">
-    <filterColumn colId="2">
+  <autoFilter ref="B7:L29">
+    <filterColumn colId="7">
       <filters>
-        <filter val="S"/>
+        <filter val="実現すると面白そう"/>
+        <filter val="実装検討"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B8:I29">
+  <conditionalFormatting sqref="B8:E25 I30:L30 B30:E30 I8:L28 B27:E27 B26:D26 B28:D28">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>$E8="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F28 F30">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$E8="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30 G8:G28">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$E8="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29 I29:L29 D29:E29">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$E29="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$E29="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>$E29="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$E29="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28 E26">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$E26="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30 H8:H28">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$E8="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$E8="完了"</formula>
+      <formula>$E29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3996,7 +4438,7 @@
           <x14:formula1>
             <xm:f>else!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D8:D29 E29</xm:sqref>
+          <xm:sqref>D8:D30 E30:G30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4004,12 +4446,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B70"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4255,13 +4697,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G38"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5057,7 +5499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -5069,37 +5511,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/99.work/課題・気になる.xlsx
+++ b/99.work/課題・気になる.xlsx
@@ -14,14 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">課題・気になる!$A$3:$G$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">課題整理_0609!$B$7:$L$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">課題整理_0609!$B$7:$M$29</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="224">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -2576,171 +2576,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ナカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ディーラ検索で条件にジャンルを持つ場合どう設計すればよいか？登録の際はポップアップを利用している、検索結果にジャンルを表示すると横に長くなってみた目が微妙
-・実際にディーラが使うことを想定した場合の画面設計、権限制御にしたい（時間がないので設計ｈしないけど）、業務フローをイメージして設計をしてみたい
-・地図画面が機能の中心なのでパワーアップしたい
-　　例　地図でお気に入り確認
-　　　　　地図画面が真ん中、サイドバーでお気に入り確認、mattermost的デザイン
-・業務を流れを考慮して、ログインIDを登録したアカウントをディーラとして紐づけ、作品登録など各機能をあつかえるようにしたい
-今だとログインしたものが複数のディーラを登録できてしまい、業務の流れがない、みんな管理者みたいなことができてしまう。
-ログインIDとディーラを関連させる
-・実際のWebサイトにある利用規約、ヘルプなどのせたい</t>
-    <rPh sb="5" eb="7">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>ヨコ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ビミョウ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="154" eb="156">
-      <t>チズ</t>
-    </rPh>
-    <rPh sb="156" eb="158">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="159" eb="161">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="162" eb="164">
-      <t>チュウシン</t>
-    </rPh>
-    <rPh sb="179" eb="180">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="181" eb="183">
-      <t>チズ</t>
-    </rPh>
-    <rPh sb="185" eb="186">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="187" eb="188">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="189" eb="191">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="197" eb="199">
-      <t>チズ</t>
-    </rPh>
-    <rPh sb="199" eb="201">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="202" eb="203">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="204" eb="205">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="213" eb="214">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="215" eb="216">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="217" eb="219">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="230" eb="231">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="238" eb="240">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="241" eb="242">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="244" eb="246">
-      <t>コウリョ</t>
-    </rPh>
-    <rPh sb="256" eb="258">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="378" eb="380">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="390" eb="392">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="392" eb="394">
-      <t>キヤク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2985,6 +2820,250 @@
     <t>製造</t>
     <rPh sb="0" eb="2">
       <t>セイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ディーラ検索で条件にジャンルを持つ場合どう設計すればよいか？登録の際はポップアップを利用している、検索結果にジャンルを表示すると横に長くなってみた目が微妙
+・実際にディーラが使うことを想定した場合の画面設計、権限制御にしたい（時間がないので設計ｈしないけど）、業務フローをイメージして設計をしてみたい
+・地図画面が機能の中心なのでパワーアップしたい
+　　例　地図でお気に入り確認
+　　　　　地図画面が真ん中、サイドバーでお気に入り確認、mattermost的デザイン
+・業務を流れを考慮して、ログインIDを登録したアカウントをディーラとして紐づけ、作品登録など各機能をあつかえるようにしたい
+今だとログインしたものが複数のディーラを登録できてしまい、業務の流れがない、みんな管理者みたいなことができてしまう。
+ログインIDとディーラを関連させる
+・実際のWebサイトにある利用規約、ヘルプなどのせたい
+・コード値を定義し、Enumを活用したい</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ビミョウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ソウテイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="185" eb="186">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="197" eb="199">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="199" eb="201">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="202" eb="203">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="204" eb="205">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="213" eb="214">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="215" eb="216">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="217" eb="219">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="230" eb="231">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="238" eb="240">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="241" eb="242">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="244" eb="246">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="256" eb="258">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="378" eb="380">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="390" eb="392">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="392" eb="394">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="409" eb="410">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="411" eb="413">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="420" eb="422">
+      <t>カツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部設計検討</t>
+  </si>
+  <si>
+    <t>ディーラー検索画面の検索条件をチェックボックスにしている
+ボックスの数が多く使いづらいので、検索条件の指定方法を見直す。
+・ポップアップ利用
+・別の検索画面にする（メロンブックスなど）
+　https://www.melonbooks.co.jp/products/genre.php</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起票日</t>
+    <rPh sb="0" eb="2">
+      <t>キヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3166,7 +3245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3217,11 +3296,114 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3606,14 +3788,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B2:L30"/>
+  <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3621,15 +3802,16 @@
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="6.875" customWidth="1"/>
     <col min="3" max="3" width="44.5" customWidth="1"/>
-    <col min="4" max="5" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="9" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.625" customWidth="1"/>
-    <col min="11" max="11" width="40.125" customWidth="1"/>
-    <col min="12" max="12" width="61.75" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.375" customWidth="1"/>
+    <col min="9" max="10" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.625" customWidth="1"/>
+    <col min="12" max="12" width="40.125" customWidth="1"/>
+    <col min="13" max="13" width="61.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
@@ -3637,21 +3819,21 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B3" s="18"/>
       <c r="C3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" s="18"/>
     </row>
-    <row r="7" spans="2:12" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3659,34 +3841,37 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="G7" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="I7" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" s="15">
         <f>ROW()-7</f>
         <v>1</v>
@@ -3694,59 +3879,65 @@
       <c r="C8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="25">
+        <v>43276</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>203</v>
-      </c>
       <c r="F8" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="K8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="15"/>
       <c r="L8" s="15"/>
-    </row>
-    <row r="9" spans="2:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B9" s="15">
-        <f t="shared" ref="B9:B29" si="0">ROW()-7</f>
+        <f t="shared" ref="B9:B30" si="0">ROW()-7</f>
         <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="25">
+        <v>43276</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="F9" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>220</v>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
+        <v>214</v>
       </c>
       <c r="I9" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="K9" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="K9" s="13"/>
       <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="2:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B10" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3754,29 +3945,32 @@
       <c r="C10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="25">
+        <v>43276</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>203</v>
-      </c>
       <c r="F10" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="K10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="13"/>
       <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="2:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3784,29 +3978,32 @@
       <c r="C11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="25">
+        <v>43276</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>203</v>
-      </c>
       <c r="F11" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="K11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="13"/>
       <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="2:12" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" ht="27" x14ac:dyDescent="0.15">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3814,33 +4011,36 @@
       <c r="C12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="25">
+        <v>43276</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="F12" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="F12" s="21">
+      <c r="G12" s="21">
         <v>43278</v>
       </c>
-      <c r="G12" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>219</v>
+      <c r="H12" s="21" t="s">
+        <v>215</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="J12" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="K12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" spans="2:12" ht="148.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="L12" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="2:13" ht="148.5" x14ac:dyDescent="0.15">
       <c r="B13" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3848,33 +4048,36 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="25">
+        <v>43276</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="F13" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="F13" s="21">
+      <c r="G13" s="21">
         <v>43278</v>
       </c>
-      <c r="G13" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>219</v>
+      <c r="H13" s="21" t="s">
+        <v>215</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="J13" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="K13" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="L13" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" spans="2:12" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B14" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3882,29 +4085,32 @@
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="25">
+        <v>43276</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>220</v>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15" t="s">
+        <v>212</v>
       </c>
       <c r="I14" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="J14" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="K14" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="K14" s="13"/>
       <c r="L14" s="13"/>
-    </row>
-    <row r="15" spans="2:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="2:13" ht="81" x14ac:dyDescent="0.15">
       <c r="B15" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3912,29 +4118,32 @@
       <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="25">
+        <v>43276</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>220</v>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="J15" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="K15" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="K15" s="13"/>
       <c r="L15" s="13"/>
-    </row>
-    <row r="16" spans="2:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B16" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3942,29 +4151,32 @@
       <c r="C16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="25">
+        <v>43276</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>203</v>
-      </c>
       <c r="F16" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="K16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="13"/>
       <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="2:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B17" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3972,29 +4184,32 @@
       <c r="C17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="25">
+        <v>43276</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>203</v>
-      </c>
       <c r="F17" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="K17" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="K17" s="13"/>
       <c r="L17" s="13"/>
-    </row>
-    <row r="18" spans="2:12" hidden="1" x14ac:dyDescent="0.15">
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B18" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4002,33 +4217,36 @@
       <c r="C18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="25">
+        <v>43276</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="F18" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="F18" s="21">
+      <c r="G18" s="21">
         <v>43278</v>
       </c>
-      <c r="G18" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>219</v>
+      <c r="H18" s="21" t="s">
+        <v>215</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="J18" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="K18" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="K18" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" spans="2:12" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="L18" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B19" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4036,29 +4254,32 @@
       <c r="C19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="25">
+        <v>43276</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="F19" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="I19" s="14" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="J19" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="K19" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="K19" s="13"/>
       <c r="L19" s="13"/>
-    </row>
-    <row r="20" spans="2:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="M19" s="13"/>
+    </row>
+    <row r="20" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B20" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4066,29 +4287,32 @@
       <c r="C20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="25">
+        <v>43276</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="F20" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="I20" s="14" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="J20" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="K20" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="K20" s="13"/>
       <c r="L20" s="13"/>
-    </row>
-    <row r="21" spans="2:12" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="M20" s="13"/>
+    </row>
+    <row r="21" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B21" s="15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4096,29 +4320,32 @@
       <c r="C21" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="25">
+        <v>43276</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="F21" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="I21" s="14" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="J21" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="K21" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="K21" s="13"/>
       <c r="L21" s="13"/>
-    </row>
-    <row r="22" spans="2:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="M21" s="13"/>
+    </row>
+    <row r="22" spans="2:13" ht="54" x14ac:dyDescent="0.15">
       <c r="B22" s="15">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4126,27 +4353,30 @@
       <c r="C22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="25">
+        <v>43276</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="F22" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="F22" s="15"/>
       <c r="G22" s="15"/>
-      <c r="H22" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="I22" s="14" t="s">
+      <c r="H22" s="15"/>
+      <c r="I22" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="J22" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="K22" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="K22" s="13"/>
       <c r="L22" s="13"/>
-    </row>
-    <row r="23" spans="2:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="M22" s="13"/>
+    </row>
+    <row r="23" spans="2:13" ht="54" x14ac:dyDescent="0.15">
       <c r="B23" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4154,29 +4384,32 @@
       <c r="C23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="25">
+        <v>43276</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="F23" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="I23" s="14" t="s">
+      <c r="G23" s="15"/>
+      <c r="H23" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="J23" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="K23" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="K23" s="13"/>
       <c r="L23" s="13"/>
-    </row>
-    <row r="24" spans="2:12" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="M23" s="13"/>
+    </row>
+    <row r="24" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B24" s="15">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4184,29 +4417,32 @@
       <c r="C24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="25">
+        <v>43276</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="F24" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="I24" s="14" t="s">
+      <c r="G24" s="15"/>
+      <c r="H24" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="J24" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="K24" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="K24" s="13"/>
       <c r="L24" s="13"/>
-    </row>
-    <row r="25" spans="2:12" ht="108" hidden="1" x14ac:dyDescent="0.15">
+      <c r="M24" s="13"/>
+    </row>
+    <row r="25" spans="2:13" ht="108" x14ac:dyDescent="0.15">
       <c r="B25" s="15">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4214,31 +4450,34 @@
       <c r="C25" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="25">
+        <v>43276</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>180</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>199</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="G25" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="J25" s="15" t="s">
+      <c r="G25" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="K25" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="K25" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="L25" s="13"/>
-    </row>
-    <row r="26" spans="2:12" ht="108" x14ac:dyDescent="0.15">
+      <c r="L25" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="M25" s="13"/>
+    </row>
+    <row r="26" spans="2:13" ht="108" x14ac:dyDescent="0.15">
       <c r="B26" s="15">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4246,27 +4485,30 @@
       <c r="C26" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="25">
+        <v>43276</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="F26" s="15"/>
+      <c r="F26" s="15" t="s">
+        <v>216</v>
+      </c>
       <c r="G26" s="15"/>
-      <c r="H26" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="I26" s="14" t="s">
+      <c r="H26" s="15"/>
+      <c r="I26" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="J26" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="K26" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="K26" s="20"/>
-      <c r="L26" s="13"/>
-    </row>
-    <row r="27" spans="2:12" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="L26" s="20"/>
+      <c r="M26" s="13"/>
+    </row>
+    <row r="27" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B27" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4274,33 +4516,36 @@
       <c r="C27" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="25">
+        <v>43276</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="F27" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="F27" s="21">
+      <c r="G27" s="21">
         <v>43278</v>
       </c>
-      <c r="G27" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="J27" s="15" t="s">
+      <c r="H27" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="K27" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="K27" s="20" t="s">
+      <c r="L27" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="L27" s="13"/>
-    </row>
-    <row r="28" spans="2:12" ht="256.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="M27" s="13"/>
+    </row>
+    <row r="28" spans="2:13" ht="270" x14ac:dyDescent="0.15">
       <c r="B28" s="15">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4308,25 +4553,28 @@
       <c r="C28" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="25">
+        <v>43276</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="F28" s="15"/>
+      <c r="F28" s="15" t="s">
+        <v>216</v>
+      </c>
       <c r="G28" s="15"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="K28" s="20"/>
-      <c r="L28" s="13"/>
-    </row>
-    <row r="29" spans="2:12" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="H28" s="15"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="L28" s="20"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B29" s="15">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4334,99 +4582,158 @@
       <c r="C29" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="25">
+        <v>43276</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="F29" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="I29" s="14" t="s">
+      <c r="G29" s="15"/>
+      <c r="H29" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="J29" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="J29" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="K29" s="13"/>
+      <c r="K29" s="22" t="s">
+        <v>204</v>
+      </c>
       <c r="L29" s="13"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B30" s="15"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="13"/>
+      <c r="M29" s="13"/>
+    </row>
+    <row r="30" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B30" s="15">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="26">
+        <v>43278</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>222</v>
+      </c>
       <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B31" s="15"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="B7:L29">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="実現すると面白そう"/>
-        <filter val="実装検討"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B8:E25 I30:L30 B30:E30 I8:L28 B27:E27 B26:D26 B28:D28">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$E8="完了"</formula>
+  <conditionalFormatting sqref="B31:C31 B8:C28 H8:I28 J8:M31 E29:F30 E8:F27 E31:G31 E28">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F28 F30">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$E8="完了"</formula>
+  <conditionalFormatting sqref="G8:G28">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30 G8:G28">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$E8="完了"</formula>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29 I29:L29 D29:E29">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>$E29="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$E29="完了"</formula>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="6" priority="5">
-      <formula>$E29="完了"</formula>
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>$F29="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="expression" dxfId="14" priority="13">
+      <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>$E29="完了"</formula>
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28 E26">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$E26="完了"</formula>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>$F28="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30 H8:H28">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$E8="完了"</formula>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$E29="完了"</formula>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="expression" dxfId="10" priority="9">
+      <formula>$F29="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="expression" dxfId="9" priority="8">
+      <formula>$F30="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>$F30="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>$F30="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>$F30="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$F30="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D31">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4438,7 +4745,7 @@
           <x14:formula1>
             <xm:f>else!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D8:D30 E30:G30</xm:sqref>
+          <xm:sqref>F31:H31 E8:E31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/99.work/課題・気になる.xlsx
+++ b/99.work/課題・気になる.xlsx
@@ -14,14 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">課題・気になる!$A$3:$G$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">課題整理_0609!$B$7:$M$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">課題整理_0609!$B$7:$M$30</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="225">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -2580,55 +2580,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>06/20　No6対応後に行う</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-06/2１　画面レイアウト対応中
-06/24　画面レイアウト→完了
-</t>
-    </r>
-    <rPh sb="9" eb="11">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No18で対応するのでクローズ</t>
     <rPh sb="5" eb="7">
       <t>タイオウ</t>
@@ -3067,12 +3018,140 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve">&gt;・ポップアップ利用
+0630　上記対応にする
+</t>
+    <rPh sb="16" eb="18">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">06/20　No6対応後に行う
+06/2１　画面レイアウト対応中
+06/24　画面レイアウト→完了
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0630　以下のように作成する
+画面レイアウト→作成中
+画面項目定義→完了
+イベント一覧→※画面レイアウトに記載
+チェック仕様→※不要とする
+画面遷移図→完了
+画面項目編集→※画面レイアウトに記載
+テーブル編集容量→※不要とする</t>
+    </r>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="124" eb="127">
+      <t>センイズ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3135,6 +3214,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3305,77 +3391,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -3788,13 +3804,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3841,7 +3858,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>174</v>
@@ -3850,13 +3867,13 @@
         <v>196</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>158</v>
@@ -3871,7 +3888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B8" s="15">
         <f>ROW()-7</f>
         <v>1</v>
@@ -3886,13 +3903,13 @@
         <v>164</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13" t="s">
@@ -3904,7 +3921,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B9" s="15">
         <f t="shared" ref="B9:B30" si="0">ROW()-7</f>
         <v>2</v>
@@ -3923,10 +3940,10 @@
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>159</v>
@@ -3937,7 +3954,7 @@
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3952,13 +3969,13 @@
         <v>164</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13" t="s">
@@ -3970,7 +3987,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3985,13 +4002,13 @@
         <v>164</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13" t="s">
@@ -4003,7 +4020,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4024,19 +4041,19 @@
         <v>43278</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M12" s="13"/>
     </row>
@@ -4061,13 +4078,13 @@
         <v>43278</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>161</v>
@@ -4077,7 +4094,7 @@
       </c>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B14" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4096,10 +4113,10 @@
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>159</v>
@@ -4110,7 +4127,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="81" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:13" ht="81" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4122,17 +4139,17 @@
         <v>43276</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>197</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>159</v>
@@ -4143,7 +4160,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4158,13 +4175,13 @@
         <v>164</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13" t="s">
@@ -4176,7 +4193,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B17" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4191,13 +4208,13 @@
         <v>164</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13" t="s">
@@ -4230,23 +4247,23 @@
         <v>43278</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K18" s="17" t="s">
         <v>171</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B19" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4265,10 +4282,10 @@
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>159</v>
@@ -4279,7 +4296,7 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
     </row>
-    <row r="20" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B20" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4298,10 +4315,10 @@
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>159</v>
@@ -4312,7 +4329,7 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
     </row>
-    <row r="21" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B21" s="15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4331,10 +4348,10 @@
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>159</v>
@@ -4345,7 +4362,7 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
     </row>
-    <row r="22" spans="2:13" ht="54" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="15">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4365,7 +4382,7 @@
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J22" s="14" t="s">
         <v>159</v>
@@ -4376,7 +4393,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="2:13" ht="54" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:13" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="B23" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4395,10 +4412,10 @@
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>159</v>
@@ -4409,7 +4426,7 @@
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
     </row>
-    <row r="24" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B24" s="15">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4428,10 +4445,10 @@
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>159</v>
@@ -4442,7 +4459,7 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
     </row>
-    <row r="25" spans="2:13" ht="108" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="15">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4463,21 +4480,21 @@
         <v>199</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K25" s="15" t="s">
         <v>188</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="M25" s="13"/>
     </row>
-    <row r="26" spans="2:13" ht="108" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="B26" s="15">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4492,12 +4509,12 @@
         <v>190</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>191</v>
@@ -4529,13 +4546,13 @@
         <v>43278</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>194</v>
@@ -4545,7 +4562,7 @@
       </c>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="2:13" ht="270" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="270" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="15">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4560,21 +4577,21 @@
         <v>190</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L28" s="20"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B29" s="15">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4593,21 +4610,21 @@
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>159</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
     </row>
-    <row r="30" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="15">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4622,22 +4639,26 @@
         <v>175</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="G30" s="15"/>
+        <v>198</v>
+      </c>
+      <c r="G30" s="21">
+        <v>43281</v>
+      </c>
       <c r="H30" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J30" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="K30" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="K30" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="L30" s="13"/>
+      <c r="L30" s="20" t="s">
+        <v>223</v>
+      </c>
       <c r="M30" s="13"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.15">
@@ -4655,84 +4676,96 @@
       <c r="M31" s="13"/>
     </row>
   </sheetData>
+  <autoFilter ref="B7:M30">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="S"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="～6月4週目"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B31:C31 B8:C28 H8:I28 J8:M31 E29:F30 E8:F27 E31:G31 E28">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="15" priority="20">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G28">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="14" priority="19">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="17" priority="18">
+    <cfRule type="expression" dxfId="13" priority="18">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="12" priority="17">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="11" priority="16">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="9" priority="14">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>$F28="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D31">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/99.work/課題・気になる.xlsx
+++ b/99.work/課題・気になる.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="225">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -2083,37 +2083,6 @@
     </rPh>
     <rPh sb="79" eb="81">
       <t>ミナオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">単項目チェックの実装方針を決定する。
-・BeanValidationを利用するかどうか
-・クライアントとサーバーでの分け方
-</t>
-    <rPh sb="0" eb="1">
-      <t>タン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ホウシン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケッテイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>カタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2566,16 +2535,6 @@
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対応中</t>
-    <rPh sb="0" eb="2">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3056,7 +3015,7 @@
       <t xml:space="preserve">
 0630　以下のように作成する
 画面レイアウト→作成中
-画面項目定義→完了
+画面項目定義→作成中、別紙＿ヘッダの項目表示制御
 イベント一覧→※画面レイアウトに記載
 チェック仕様→※不要とする
 画面遷移図→完了
@@ -3108,41 +3067,123 @@
     <rPh sb="83" eb="85">
       <t>テイギ</t>
     </rPh>
-    <rPh sb="86" eb="88">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
+    <rPh sb="108" eb="110">
       <t>イチラン</t>
     </rPh>
-    <rPh sb="97" eb="99">
+    <rPh sb="112" eb="114">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="105" eb="107">
+    <rPh sb="120" eb="122">
       <t>キサイ</t>
     </rPh>
-    <rPh sb="112" eb="114">
+    <rPh sb="127" eb="129">
       <t>シヨウ</t>
     </rPh>
-    <rPh sb="122" eb="124">
+    <rPh sb="137" eb="139">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="124" eb="127">
+    <rPh sb="139" eb="142">
       <t>センイズ</t>
     </rPh>
-    <rPh sb="131" eb="133">
+    <rPh sb="146" eb="148">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="133" eb="135">
+    <rPh sb="148" eb="150">
       <t>コウモク</t>
     </rPh>
-    <rPh sb="135" eb="137">
+    <rPh sb="150" eb="152">
       <t>ヘンシュウ</t>
     </rPh>
-    <rPh sb="154" eb="156">
+    <rPh sb="169" eb="171">
       <t>ヘンシュウ</t>
     </rPh>
-    <rPh sb="156" eb="158">
+    <rPh sb="171" eb="173">
       <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">単項目チェックの実装方針を決定する。
+・BeanValidationを利用するかどうか
+・クライアントとサーバーでの分け方
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0701　単項目チェックの仕様を決める必要がある（画面項目定義）
+</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>タン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホウシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>タン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～7月1週目（余裕があれば）</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨユウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3391,7 +3432,77 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3807,11 +3918,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3824,7 +3935,7 @@
     <col min="7" max="8" width="14.375" customWidth="1"/>
     <col min="9" max="10" width="17.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="59.625" customWidth="1"/>
-    <col min="12" max="12" width="40.125" customWidth="1"/>
+    <col min="12" max="12" width="62.125" customWidth="1"/>
     <col min="13" max="13" width="61.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3833,18 +3944,18 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B3" s="18"/>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
@@ -3858,22 +3969,22 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>158</v>
@@ -3882,7 +3993,7 @@
         <v>3</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>4</v>
@@ -3890,7 +4001,6 @@
     </row>
     <row r="8" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B8" s="15">
-        <f>ROW()-7</f>
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -3903,13 +4013,13 @@
         <v>164</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13" t="s">
@@ -3923,7 +4033,6 @@
     </row>
     <row r="9" spans="2:13" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B9" s="15">
-        <f t="shared" ref="B9:B30" si="0">ROW()-7</f>
         <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -3933,17 +4042,17 @@
         <v>43276</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>159</v>
@@ -3956,7 +4065,6 @@
     </row>
     <row r="10" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="15">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -3969,13 +4077,13 @@
         <v>164</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13" t="s">
@@ -3989,7 +4097,6 @@
     </row>
     <row r="11" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="15">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -4002,13 +4109,13 @@
         <v>164</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13" t="s">
@@ -4022,7 +4129,6 @@
     </row>
     <row r="12" spans="2:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12" s="15">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -4032,34 +4138,33 @@
         <v>43276</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G12" s="21">
         <v>43278</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13" ht="148.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B13" s="15">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -4069,34 +4174,33 @@
         <v>43276</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G13" s="21">
         <v>43278</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>161</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M13" s="13"/>
     </row>
     <row r="14" spans="2:13" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B14" s="15">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -4106,17 +4210,17 @@
         <v>43276</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>159</v>
@@ -4129,7 +4233,6 @@
     </row>
     <row r="15" spans="2:13" ht="81" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="15">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -4139,17 +4242,17 @@
         <v>43276</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>159</v>
@@ -4162,7 +4265,6 @@
     </row>
     <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="15">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -4175,13 +4277,13 @@
         <v>164</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13" t="s">
@@ -4195,7 +4297,6 @@
     </row>
     <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B17" s="15">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -4208,13 +4309,13 @@
         <v>164</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13" t="s">
@@ -4226,9 +4327,8 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B18" s="15">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -4238,34 +4338,33 @@
         <v>43276</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G18" s="21">
         <v>43278</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M18" s="13"/>
     </row>
     <row r="19" spans="2:13" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B19" s="15">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C19" s="14" t="s">
@@ -4275,17 +4374,17 @@
         <v>43276</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>159</v>
@@ -4298,7 +4397,6 @@
     </row>
     <row r="20" spans="2:13" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B20" s="15">
-        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C20" s="14" t="s">
@@ -4308,17 +4406,17 @@
         <v>43276</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>159</v>
@@ -4331,7 +4429,6 @@
     </row>
     <row r="21" spans="2:13" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B21" s="15">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -4341,17 +4438,17 @@
         <v>43276</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>159</v>
@@ -4362,9 +4459,8 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
     </row>
-    <row r="22" spans="2:13" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="81" x14ac:dyDescent="0.15">
       <c r="B22" s="15">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C22" s="14" t="s">
@@ -4374,28 +4470,29 @@
         <v>43276</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="H22" s="15" t="s">
+        <v>224</v>
+      </c>
       <c r="I22" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J22" s="14" t="s">
         <v>159</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
     </row>
     <row r="23" spans="2:13" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="B23" s="15">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C23" s="14" t="s">
@@ -4405,30 +4502,29 @@
         <v>43276</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>159</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
     </row>
-    <row r="24" spans="2:13" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B24" s="15">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C24" s="14" t="s">
@@ -4438,30 +4534,29 @@
         <v>43276</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>159</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
     </row>
-    <row r="25" spans="2:13" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="15">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C25" s="14" t="s">
@@ -4471,32 +4566,33 @@
         <v>43276</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
+      </c>
+      <c r="G25" s="21">
+        <v>43282</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="I25" s="14"/>
+        <v>212</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>215</v>
+      </c>
       <c r="J25" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M25" s="13"/>
     </row>
-    <row r="26" spans="2:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="108" x14ac:dyDescent="0.15">
       <c r="B26" s="15">
-        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C26" s="14" t="s">
@@ -4506,28 +4602,27 @@
         <v>43276</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J26" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" s="15" t="s">
         <v>191</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>192</v>
       </c>
       <c r="L26" s="20"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B27" s="15">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -4537,34 +4632,33 @@
         <v>43276</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G27" s="21">
         <v>43278</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K27" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="L27" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="L27" s="20" t="s">
-        <v>195</v>
-      </c>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="2:13" ht="270" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="270" x14ac:dyDescent="0.15">
       <c r="B28" s="15">
-        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C28" s="14" t="s">
@@ -4574,26 +4668,25 @@
         <v>43276</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L28" s="20"/>
       <c r="M28" s="13"/>
     </row>
     <row r="29" spans="2:13" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B29" s="15">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -4603,30 +4696,29 @@
         <v>43276</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>159</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
     </row>
     <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="15">
-        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C30" s="14" t="s">
@@ -4636,28 +4728,28 @@
         <v>43278</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G30" s="21">
         <v>43281</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K30" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="L30" s="20" t="s">
         <v>221</v>
-      </c>
-      <c r="L30" s="20" t="s">
-        <v>223</v>
       </c>
       <c r="M30" s="13"/>
     </row>
@@ -4677,95 +4769,91 @@
     </row>
   </sheetData>
   <autoFilter ref="B7:M30">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="S"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="6">
-      <filters>
-        <filter val="～6月4週目"/>
+      <filters blank="1">
+        <filter val="～7月1週目"/>
+        <filter val="余裕があれば"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B31:C31 B8:C28 H8:I28 J8:M31 E29:F30 E8:F27 E31:G31 E28">
-    <cfRule type="expression" dxfId="15" priority="20">
+  <conditionalFormatting sqref="B31:C31 B8:C28 E29:F30 E8:F27 E31:G31 E28 J8:M31 H8:I28">
+    <cfRule type="expression" dxfId="15" priority="28">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G28">
-    <cfRule type="expression" dxfId="14" priority="19">
+    <cfRule type="expression" dxfId="14" priority="27">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="13" priority="18">
+    <cfRule type="expression" dxfId="13" priority="26">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="12" priority="17">
+    <cfRule type="expression" dxfId="12" priority="25">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="11" priority="16">
+    <cfRule type="expression" dxfId="11" priority="24">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="10" priority="21">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="9" priority="14">
+    <cfRule type="expression" dxfId="9" priority="22">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="8" priority="20">
       <formula>$F28="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="7" priority="19">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="6" priority="17">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="5" priority="16">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="3" priority="13">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D31">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5851,37 +5939,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/99.work/課題・気になる.xlsx
+++ b/99.work/課題・気になる.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="235">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -3187,12 +3187,130 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>No8, Ajax、疎通、ディーラ検索に適用</t>
+    <rPh sb="10" eb="12">
+      <t>ソツウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工数</t>
+    <rPh sb="0" eb="2">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No13, 画像登録、疎通、サンプル</t>
+    <rPh sb="6" eb="8">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No13, 画像登録、ディーラ登録に適用</t>
+    <rPh sb="6" eb="8">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>係数</t>
+    <rPh sb="0" eb="2">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小計</t>
+    <rPh sb="0" eb="2">
+      <t>ショウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人日、6H</t>
+    <rPh sb="0" eb="2">
+      <t>ニンニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工数,H</t>
+    <rPh sb="0" eb="2">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0707(土）時点見積もり</t>
+    <rPh sb="5" eb="6">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ミツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0707
+&gt;・エラーメッセージ、警告メッセージをどう管理するか
+⇒警告メッセージはResourceBundleMessageSourceクラスを利用する。
+エラーメッセージはNo15と合わせて検討。
+&gt;・画面にメッセージ出す方法をどうするか
+springタグを利用する
+</t>
+    <rPh sb="33" eb="35">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3265,6 +3383,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3372,7 +3497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3428,81 +3553,15 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -3916,16 +3975,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="B2:M31"/>
+  <dimension ref="B2:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="6.875" customWidth="1"/>
@@ -3939,7 +3998,7 @@
     <col min="13" max="13" width="61.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13">
       <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
@@ -3947,21 +4006,21 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13">
       <c r="B3" s="18"/>
       <c r="C3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13">
       <c r="C4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13">
       <c r="B5" s="18"/>
     </row>
-    <row r="7" spans="2:13" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" s="1" customFormat="1" ht="37.5" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3999,7 +4058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13" hidden="1">
       <c r="B8" s="15">
         <v>1</v>
       </c>
@@ -4031,7 +4090,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="2:13" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13" ht="40.5" hidden="1">
       <c r="B9" s="15">
         <v>2</v>
       </c>
@@ -4063,7 +4122,7 @@
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" hidden="1">
       <c r="B10" s="15">
         <v>3</v>
       </c>
@@ -4095,7 +4154,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:13" hidden="1">
       <c r="B11" s="15">
         <v>4</v>
       </c>
@@ -4127,7 +4186,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13" ht="27" hidden="1">
       <c r="B12" s="15">
         <v>5</v>
       </c>
@@ -4163,7 +4222,7 @@
       </c>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="148.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13" ht="148.5" hidden="1">
       <c r="B13" s="15">
         <v>6</v>
       </c>
@@ -4199,7 +4258,7 @@
       </c>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="2:13" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13" ht="94.5" hidden="1">
       <c r="B14" s="15">
         <v>7</v>
       </c>
@@ -4231,7 +4290,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="81" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:13" ht="81">
       <c r="B15" s="15">
         <v>8</v>
       </c>
@@ -4263,7 +4322,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:13" hidden="1">
       <c r="B16" s="15">
         <v>9</v>
       </c>
@@ -4295,7 +4354,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" hidden="1">
       <c r="B17" s="15">
         <v>10</v>
       </c>
@@ -4327,7 +4386,7 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" hidden="1">
       <c r="B18" s="15">
         <v>11</v>
       </c>
@@ -4363,7 +4422,7 @@
       </c>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" spans="2:13" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" ht="94.5" hidden="1">
       <c r="B19" s="15">
         <v>12</v>
       </c>
@@ -4395,7 +4454,7 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
     </row>
-    <row r="20" spans="2:13" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="67.5">
       <c r="B20" s="15">
         <v>13</v>
       </c>
@@ -4427,7 +4486,7 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
     </row>
-    <row r="21" spans="2:13" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" ht="94.5" hidden="1">
       <c r="B21" s="15">
         <v>14</v>
       </c>
@@ -4459,7 +4518,7 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
     </row>
-    <row r="22" spans="2:13" ht="81" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="81">
       <c r="B22" s="15">
         <v>15</v>
       </c>
@@ -4491,7 +4550,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="2:13" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:13" ht="54" hidden="1">
       <c r="B23" s="15">
         <v>16</v>
       </c>
@@ -4523,7 +4582,7 @@
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
     </row>
-    <row r="24" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="124.5" customHeight="1">
       <c r="B24" s="15">
         <v>17</v>
       </c>
@@ -4552,10 +4611,12 @@
       <c r="K24" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="L24" s="13"/>
+      <c r="L24" s="27" t="s">
+        <v>234</v>
+      </c>
       <c r="M24" s="13"/>
     </row>
-    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1">
       <c r="B25" s="15">
         <v>18</v>
       </c>
@@ -4591,7 +4652,7 @@
       </c>
       <c r="M25" s="13"/>
     </row>
-    <row r="26" spans="2:13" ht="108" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="108" hidden="1">
       <c r="B26" s="15">
         <v>19</v>
       </c>
@@ -4621,7 +4682,7 @@
       <c r="L26" s="20"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="2:13" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="67.5" hidden="1">
       <c r="B27" s="15">
         <v>20</v>
       </c>
@@ -4657,7 +4718,7 @@
       </c>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="2:13" ht="270" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="270" hidden="1">
       <c r="B28" s="15">
         <v>21</v>
       </c>
@@ -4685,7 +4746,7 @@
       <c r="L28" s="20"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="2:13" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="67.5" hidden="1">
       <c r="B29" s="15">
         <v>22</v>
       </c>
@@ -4717,7 +4778,7 @@
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
     </row>
-    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1">
       <c r="B30" s="15">
         <v>23</v>
       </c>
@@ -4753,7 +4814,7 @@
       </c>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13">
       <c r="B31" s="15"/>
       <c r="C31" s="14"/>
       <c r="D31" s="13"/>
@@ -4767,12 +4828,105 @@
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
     </row>
+    <row r="37" spans="3:4">
+      <c r="C37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="D38" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" t="s">
+        <v>227</v>
+      </c>
+      <c r="D39" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" t="s">
+        <v>227</v>
+      </c>
+      <c r="D41" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" t="s">
+        <v>230</v>
+      </c>
+      <c r="D43" s="28">
+        <f>SUM(D39:D42)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="D44" s="28"/>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="C45" t="s">
+        <v>229</v>
+      </c>
+      <c r="D45" s="28">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="D46" s="28"/>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" t="s">
+        <v>232</v>
+      </c>
+      <c r="D47" s="28">
+        <f>D43*D45</f>
+        <v>29.900000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="C48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D48" s="28">
+        <f>ROUND(D47/6,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="28"/>
+    </row>
   </sheetData>
   <autoFilter ref="B7:M30">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="A"/>
+        <filter val="B"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="6">
-      <filters blank="1">
+      <filters>
         <filter val="～7月1週目"/>
-        <filter val="余裕があれば"/>
+        <filter val="～7月1週目（余裕があれば）"/>
+        <filter val="～7月3週目"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4882,238 +5036,238 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="57.75" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2">
       <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2">
       <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:2">
       <c r="B13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:2">
       <c r="B16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2">
       <c r="B21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2">
       <c r="B23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2">
       <c r="B24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:2">
       <c r="B25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:2">
       <c r="B28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:2">
       <c r="B29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:2">
       <c r="B30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:2">
       <c r="B32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:2">
       <c r="B35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:2">
       <c r="B36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:2">
       <c r="B37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:2">
       <c r="B38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:2">
       <c r="B39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:2">
       <c r="B40" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:2">
       <c r="B41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:2">
       <c r="B44" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:2">
       <c r="B45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:2">
       <c r="B46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:2">
       <c r="B49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:2">
       <c r="B50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:2">
       <c r="B51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:2">
       <c r="B53" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:2">
       <c r="B54" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:2">
       <c r="B56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:2">
       <c r="B57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:2">
       <c r="B59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:2">
       <c r="B61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:2">
       <c r="B62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:2">
       <c r="B64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:2">
       <c r="B66" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:2">
       <c r="B67" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:2">
       <c r="B70" t="s">
         <v>65</v>
       </c>
@@ -5134,7 +5288,7 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -5145,12 +5299,12 @@
     <col min="7" max="7" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="B2" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="43.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5173,7 +5327,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="94.5">
       <c r="A4" s="11">
         <f>ROW()-3</f>
         <v>1</v>
@@ -5195,7 +5349,7 @@
       </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="8">
         <f t="shared" ref="A5:A38" si="0">ROW()-3</f>
         <v>2</v>
@@ -5217,7 +5371,7 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5239,7 +5393,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="67.5">
       <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5261,7 +5415,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="60.75" customHeight="1">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5283,7 +5437,7 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="81" customHeight="1">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5305,7 +5459,7 @@
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="60.75" customHeight="1">
       <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5327,7 +5481,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="60.75" customHeight="1">
       <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5349,7 +5503,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="40.5">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5371,7 +5525,7 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5393,7 +5547,7 @@
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="67.5">
       <c r="A14" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5415,7 +5569,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="54">
       <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5437,7 +5591,7 @@
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="67.5">
       <c r="A16" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5459,7 +5613,7 @@
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="40.5">
       <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5481,7 +5635,7 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="27">
       <c r="A18" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5503,7 +5657,7 @@
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="27">
       <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5525,7 +5679,7 @@
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5547,7 +5701,7 @@
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="81">
       <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5569,7 +5723,7 @@
       </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="81">
       <c r="A22" s="8">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5591,7 +5745,7 @@
       </c>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="67.5">
       <c r="A23" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5613,7 +5767,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="40.5">
       <c r="A24" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5635,7 +5789,7 @@
       </c>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="27">
       <c r="A25" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5655,7 +5809,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="40.5">
       <c r="A26" s="8">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5677,7 +5831,7 @@
       </c>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="54">
       <c r="A27" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5699,7 +5853,7 @@
       </c>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="27">
       <c r="A28" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5721,7 +5875,7 @@
       </c>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="54">
       <c r="A29" s="8">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5743,7 +5897,7 @@
       </c>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="54">
       <c r="A30" s="8">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5765,7 +5919,7 @@
       </c>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="40.5">
       <c r="A31" s="8">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5787,7 +5941,7 @@
       </c>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="40.5">
       <c r="A32" s="8">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5809,7 +5963,7 @@
       </c>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="94.5">
       <c r="A33" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5831,7 +5985,7 @@
       </c>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7">
       <c r="A34" s="8">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5853,7 +6007,7 @@
       </c>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:7" ht="108" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="108">
       <c r="A35" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5875,7 +6029,7 @@
       </c>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="175.5">
       <c r="A36" s="8">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5895,7 +6049,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7">
       <c r="A37" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5907,7 +6061,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5935,39 +6089,39 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>185</v>
       </c>

--- a/99.work/課題・気になる.xlsx
+++ b/99.work/課題・気になる.xlsx
@@ -14,14 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">課題・気になる!$A$3:$G$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">課題整理_0609!$B$7:$M$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">課題整理_0609!$B$7:$M$31</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="241">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -3302,6 +3302,79 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>～7月2週目</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部設計</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作品をproductでなくworkに変更する</t>
+    <rPh sb="0" eb="2">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">英語を正確な意味に変更する
+ER図、DDL、外部設計
+</t>
+    <rPh sb="0" eb="2">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応中</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -3310,7 +3383,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3561,7 +3634,217 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3975,16 +4258,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="B2:M49"/>
+  <dimension ref="B2:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="6.875" customWidth="1"/>
@@ -3998,7 +4281,7 @@
     <col min="13" max="13" width="61.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
@@ -4006,21 +4289,21 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B3" s="18"/>
       <c r="C3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" s="18"/>
     </row>
-    <row r="7" spans="2:13" s="1" customFormat="1" ht="37.5" customHeight="1">
+    <row r="7" spans="2:13" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -4058,7 +4341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:13" hidden="1">
+    <row r="8" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B8" s="15">
         <v>1</v>
       </c>
@@ -4090,7 +4373,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="2:13" ht="40.5" hidden="1">
+    <row r="9" spans="2:13" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B9" s="15">
         <v>2</v>
       </c>
@@ -4122,7 +4405,7 @@
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="2:13" hidden="1">
+    <row r="10" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="15">
         <v>3</v>
       </c>
@@ -4154,7 +4437,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="2:13" hidden="1">
+    <row r="11" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="15">
         <v>4</v>
       </c>
@@ -4186,7 +4469,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" ht="27" hidden="1">
+    <row r="12" spans="2:13" ht="27" x14ac:dyDescent="0.15">
       <c r="B12" s="15">
         <v>5</v>
       </c>
@@ -4222,7 +4505,7 @@
       </c>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="148.5" hidden="1">
+    <row r="13" spans="2:13" ht="148.5" x14ac:dyDescent="0.15">
       <c r="B13" s="15">
         <v>6</v>
       </c>
@@ -4258,7 +4541,7 @@
       </c>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="2:13" ht="94.5" hidden="1">
+    <row r="14" spans="2:13" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B14" s="15">
         <v>7</v>
       </c>
@@ -4290,7 +4573,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="81">
+    <row r="15" spans="2:13" ht="81" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="15">
         <v>8</v>
       </c>
@@ -4322,7 +4605,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="2:13" hidden="1">
+    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="15">
         <v>9</v>
       </c>
@@ -4354,7 +4637,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="2:13" hidden="1">
+    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B17" s="15">
         <v>10</v>
       </c>
@@ -4386,7 +4669,7 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="2:13" hidden="1">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B18" s="15">
         <v>11</v>
       </c>
@@ -4422,7 +4705,7 @@
       </c>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" spans="2:13" ht="94.5" hidden="1">
+    <row r="19" spans="2:13" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B19" s="15">
         <v>12</v>
       </c>
@@ -4454,7 +4737,7 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
     </row>
-    <row r="20" spans="2:13" ht="67.5">
+    <row r="20" spans="2:13" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B20" s="15">
         <v>13</v>
       </c>
@@ -4486,7 +4769,7 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
     </row>
-    <row r="21" spans="2:13" ht="94.5" hidden="1">
+    <row r="21" spans="2:13" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B21" s="15">
         <v>14</v>
       </c>
@@ -4518,7 +4801,7 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
     </row>
-    <row r="22" spans="2:13" ht="81">
+    <row r="22" spans="2:13" ht="81" x14ac:dyDescent="0.15">
       <c r="B22" s="15">
         <v>15</v>
       </c>
@@ -4532,7 +4815,7 @@
         <v>178</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15" t="s">
@@ -4550,7 +4833,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="2:13" ht="54" hidden="1">
+    <row r="23" spans="2:13" ht="54" hidden="1" x14ac:dyDescent="0.15">
       <c r="B23" s="15">
         <v>16</v>
       </c>
@@ -4582,7 +4865,7 @@
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
     </row>
-    <row r="24" spans="2:13" ht="124.5" customHeight="1">
+    <row r="24" spans="2:13" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="15">
         <v>17</v>
       </c>
@@ -4596,7 +4879,7 @@
         <v>174</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15" t="s">
@@ -4616,7 +4899,7 @@
       </c>
       <c r="M24" s="13"/>
     </row>
-    <row r="25" spans="2:13" ht="186.75" hidden="1" customHeight="1">
+    <row r="25" spans="2:13" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="15">
         <v>18</v>
       </c>
@@ -4652,7 +4935,7 @@
       </c>
       <c r="M25" s="13"/>
     </row>
-    <row r="26" spans="2:13" ht="108" hidden="1">
+    <row r="26" spans="2:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
       <c r="B26" s="15">
         <v>19</v>
       </c>
@@ -4682,7 +4965,7 @@
       <c r="L26" s="20"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="2:13" ht="67.5" hidden="1">
+    <row r="27" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B27" s="15">
         <v>20</v>
       </c>
@@ -4718,7 +5001,7 @@
       </c>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="2:13" ht="270" hidden="1">
+    <row r="28" spans="2:13" ht="270" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="15">
         <v>21</v>
       </c>
@@ -4746,7 +5029,7 @@
       <c r="L28" s="20"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="2:13" ht="67.5" hidden="1">
+    <row r="29" spans="2:13" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B29" s="15">
         <v>22</v>
       </c>
@@ -4778,7 +5061,7 @@
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
     </row>
-    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1">
+    <row r="30" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="15">
         <v>23</v>
       </c>
@@ -4814,201 +5097,367 @@
       </c>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="2:13">
-      <c r="B31" s="15"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="13"/>
+    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="15">
+        <v>24</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="26">
+        <v>43288</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="L31" s="20"/>
       <c r="M31" s="13"/>
     </row>
-    <row r="37" spans="3:4">
-      <c r="C37" t="s">
+    <row r="32" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="15"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="13"/>
+    </row>
+    <row r="33" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="15"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="13"/>
+    </row>
+    <row r="34" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="15"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="15"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="13"/>
+    </row>
+    <row r="36" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="15"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="13"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B37" s="15"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="3:4">
-      <c r="D38" t="s">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="D44" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="39" spans="3:4">
-      <c r="C39" t="s">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
         <v>227</v>
       </c>
-      <c r="D39" s="28">
+      <c r="D45" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="3:4">
-      <c r="C40" t="s">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
         <v>225</v>
       </c>
-      <c r="D40" s="28">
+      <c r="D46" s="28">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="3:4">
-      <c r="C41" t="s">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
         <v>227</v>
       </c>
-      <c r="D41" s="28">
+      <c r="D47" s="28">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="3:4">
-      <c r="C42" t="s">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
         <v>228</v>
       </c>
-      <c r="D42" s="28">
+      <c r="D48" s="28">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="3:4">
-      <c r="C43" t="s">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
         <v>230</v>
       </c>
-      <c r="D43" s="28">
-        <f>SUM(D39:D42)</f>
+      <c r="D49" s="28">
+        <f>SUM(D45:D48)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="3:4">
-      <c r="D44" s="28"/>
-    </row>
-    <row r="45" spans="3:4">
-      <c r="C45" t="s">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D50" s="28"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
         <v>229</v>
       </c>
-      <c r="D45" s="28">
+      <c r="D51" s="28">
         <v>1.3</v>
       </c>
     </row>
-    <row r="46" spans="3:4">
-      <c r="D46" s="28"/>
-    </row>
-    <row r="47" spans="3:4">
-      <c r="C47" t="s">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D52" s="28"/>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
         <v>232</v>
       </c>
-      <c r="D47" s="28">
-        <f>D43*D45</f>
+      <c r="D53" s="28">
+        <f>D49*D51</f>
         <v>29.900000000000002</v>
       </c>
     </row>
-    <row r="48" spans="3:4">
-      <c r="C48" t="s">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
         <v>231</v>
       </c>
-      <c r="D48" s="28">
-        <f>ROUND(D47/6,1)</f>
+      <c r="D54" s="28">
+        <f>ROUND(D53/6,1)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="4:4">
-      <c r="D49" s="28"/>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D55" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="B7:M30">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="A"/>
-        <filter val="B"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="B7:M31">
     <filterColumn colId="6">
       <filters>
+        <filter val="～6月4週目"/>
         <filter val="～7月1週目"/>
         <filter val="～7月1週目（余裕があれば）"/>
-        <filter val="～7月3週目"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B31:C31 B8:C28 E29:F30 E8:F27 E31:G31 E28 J8:M31 H8:I28">
-    <cfRule type="expression" dxfId="15" priority="28">
+  <conditionalFormatting sqref="B37:C37 B8:C28 E29:F30 E8:F27 E37:G37 E28 J8:M30 H8:I28 J37:M37">
+    <cfRule type="expression" dxfId="38" priority="43">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G28">
-    <cfRule type="expression" dxfId="14" priority="27">
+    <cfRule type="expression" dxfId="37" priority="42">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="13" priority="26">
-      <formula>$F31="完了"</formula>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="expression" dxfId="36" priority="41">
+      <formula>$F37="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="12" priority="25">
+    <cfRule type="expression" dxfId="35" priority="40">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="11" priority="24">
+    <cfRule type="expression" dxfId="34" priority="39">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="10" priority="21">
+    <cfRule type="expression" dxfId="33" priority="36">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="9" priority="22">
+    <cfRule type="expression" dxfId="32" priority="37">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="8" priority="20">
+    <cfRule type="expression" dxfId="31" priority="35">
       <formula>$F28="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="7" priority="19">
-      <formula>$F31="完了"</formula>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="expression" dxfId="30" priority="34">
+      <formula>$F37="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="6" priority="17">
+    <cfRule type="expression" dxfId="29" priority="32">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="5" priority="16">
+    <cfRule type="expression" dxfId="28" priority="31">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="4" priority="15">
+    <cfRule type="expression" dxfId="27" priority="30">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="3" priority="13">
+    <cfRule type="expression" dxfId="26" priority="28">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="25" priority="27">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D31">
-    <cfRule type="expression" dxfId="0" priority="9">
+  <conditionalFormatting sqref="D8:D30 D37">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>$F8="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:F31 J31:M31">
+    <cfRule type="expression" dxfId="22" priority="15">
+      <formula>$F31="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="expression" dxfId="21" priority="14">
+      <formula>$F31="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="expression" dxfId="20" priority="13">
+      <formula>$F31="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="expression" dxfId="19" priority="12">
+      <formula>$F31="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="expression" dxfId="18" priority="11">
+      <formula>$F31="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="expression" dxfId="16" priority="9">
+      <formula>$F31="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:F36 J32:M36">
+    <cfRule type="expression" dxfId="15" priority="8">
+      <formula>$F32="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:B36">
+    <cfRule type="expression" dxfId="13" priority="7">
+      <formula>$F32="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G36">
+    <cfRule type="expression" dxfId="11" priority="6">
+      <formula>$F32="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H36">
+    <cfRule type="expression" dxfId="9" priority="5">
+      <formula>$F32="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:I36">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>$F32="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C36">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$F32="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D36">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$F32="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5020,7 +5469,7 @@
           <x14:formula1>
             <xm:f>else!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>F31:H31 E8:E31</xm:sqref>
+          <xm:sqref>F37:H37 E8:E37</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5036,238 +5485,238 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="57.75" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
         <v>65</v>
       </c>
@@ -5284,11 +5733,11 @@
   <dimension ref="A2:G38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -5299,12 +5748,12 @@
     <col min="7" max="7" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="43.5" customHeight="1">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5327,7 +5776,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5">
+    <row r="4" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <f>ROW()-3</f>
         <v>1</v>
@@ -5349,7 +5798,7 @@
       </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <f t="shared" ref="A5:A38" si="0">ROW()-3</f>
         <v>2</v>
@@ -5371,7 +5820,7 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5393,7 +5842,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="67.5">
+    <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5415,7 +5864,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="60.75" customHeight="1">
+    <row r="8" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5437,7 +5886,7 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="81" customHeight="1">
+    <row r="9" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5459,7 +5908,7 @@
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="60.75" customHeight="1">
+    <row r="10" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5481,7 +5930,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="60.75" customHeight="1">
+    <row r="11" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5503,7 +5952,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" ht="40.5">
+    <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5525,7 +5974,7 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5547,7 +5996,7 @@
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" ht="67.5">
+    <row r="14" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5569,7 +6018,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" ht="54">
+    <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5591,7 +6040,7 @@
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" ht="67.5">
+    <row r="16" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5613,7 +6062,7 @@
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" ht="40.5">
+    <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5635,7 +6084,7 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="27">
+    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5657,7 +6106,7 @@
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" ht="27">
+    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5679,7 +6128,7 @@
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5701,7 +6150,7 @@
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="81">
+    <row r="21" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5723,7 +6172,7 @@
       </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="81">
+    <row r="22" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5745,7 +6194,7 @@
       </c>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7" ht="67.5">
+    <row r="23" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5767,7 +6216,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" ht="40.5">
+    <row r="24" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5789,7 +6238,7 @@
       </c>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" ht="27">
+    <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5809,7 +6258,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" ht="40.5">
+    <row r="26" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5831,7 +6280,7 @@
       </c>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" ht="54">
+    <row r="27" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5853,7 +6302,7 @@
       </c>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7" ht="27">
+    <row r="28" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5875,7 +6324,7 @@
       </c>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" ht="54">
+    <row r="29" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5897,7 +6346,7 @@
       </c>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" ht="54">
+    <row r="30" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5919,7 +6368,7 @@
       </c>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:7" ht="40.5">
+    <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5941,7 +6390,7 @@
       </c>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7" ht="40.5">
+    <row r="32" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5963,7 +6412,7 @@
       </c>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="1:7" ht="94.5">
+    <row r="33" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5985,7 +6434,7 @@
       </c>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6007,7 +6456,7 @@
       </c>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:7" ht="108">
+    <row r="35" spans="1:7" ht="108" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6029,7 +6478,7 @@
       </c>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="1:7" ht="175.5">
+    <row r="36" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6049,7 +6498,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6061,7 +6510,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6089,39 +6538,39 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>185</v>
       </c>

--- a/99.work/課題・気になる.xlsx
+++ b/99.work/課題・気になる.xlsx
@@ -3278,100 +3278,179 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">0707
+    <t>A</t>
+  </si>
+  <si>
+    <t>～7月2週目</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部設計</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作品をproductでなくworkに変更する</t>
+    <rPh sb="0" eb="2">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">英語を正確な意味に変更する
+ER図、DDL、外部設計
+</t>
+    <rPh sb="0" eb="2">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応中</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0707（土）
 &gt;・エラーメッセージ、警告メッセージをどう管理するか
 ⇒警告メッセージはResourceBundleMessageSourceクラスを利用する。
 エラーメッセージはNo15と合わせて検討。
 &gt;・画面にメッセージ出す方法をどうするか
 springタグを利用する
 </t>
-    <rPh sb="33" eb="35">
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0708（日）
+単項目チェックのエラー表示部は、JSPタグを使うなどして共通化すると便利だと考えた。（参考：https://terasolunaorg.github.io/guideline/public_review/ArchitectureInDetail/MessageManagement.html）
+が、時間がかかるので対応しない。
+以下に作成した内容をコピペして流用する。
+・accountregist.jsp
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="36" eb="38">
       <t>ケイコク</t>
     </rPh>
-    <rPh sb="72" eb="74">
+    <rPh sb="75" eb="77">
       <t>リヨウ</t>
     </rPh>
-    <rPh sb="92" eb="93">
+    <rPh sb="95" eb="96">
       <t>ア</t>
     </rPh>
-    <rPh sb="96" eb="98">
+    <rPh sb="99" eb="101">
       <t>ケントウ</t>
     </rPh>
-    <rPh sb="131" eb="133">
+    <rPh sb="134" eb="136">
       <t>リヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>～7月2週目</t>
-    <rPh sb="2" eb="3">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>シュウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>外部設計</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作品をproductでなくworkに変更する</t>
-    <rPh sb="0" eb="2">
-      <t>サクヒン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">英語を正確な意味に変更する
-ER図、DDL、外部設計
-</t>
-    <rPh sb="0" eb="2">
-      <t>エイゴ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイカク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イミ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対応中</t>
-    <rPh sb="0" eb="2">
+    <rPh sb="145" eb="146">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>タン</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="178" eb="179">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>ベンリ</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="305" eb="307">
       <t>タイオウ</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナカ</t>
+    <rPh sb="312" eb="314">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="315" eb="317">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="319" eb="321">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="327" eb="329">
+      <t>リュウヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3383,7 +3462,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3459,10 +3538,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3626,127 +3712,15 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill>
@@ -4264,7 +4238,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4469,7 +4443,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12" s="15">
         <v>5</v>
       </c>
@@ -4505,7 +4479,7 @@
       </c>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13" ht="148.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B13" s="15">
         <v>6</v>
       </c>
@@ -4669,7 +4643,7 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="B18" s="15">
         <v>11</v>
       </c>
@@ -4815,7 +4789,7 @@
         <v>178</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15" t="s">
@@ -4830,7 +4804,7 @@
       <c r="K22" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="L22" s="13"/>
+      <c r="L22" s="15"/>
       <c r="M22" s="13"/>
     </row>
     <row r="23" spans="2:13" ht="54" hidden="1" x14ac:dyDescent="0.15">
@@ -4865,7 +4839,7 @@
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
     </row>
-    <row r="24" spans="2:13" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="240.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="15">
         <v>17</v>
       </c>
@@ -4879,9 +4853,11 @@
         <v>174</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="G24" s="15"/>
+        <v>197</v>
+      </c>
+      <c r="G24" s="21">
+        <v>43289</v>
+      </c>
       <c r="H24" s="15" t="s">
         <v>206</v>
       </c>
@@ -4894,8 +4870,8 @@
       <c r="K24" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="L24" s="27" t="s">
-        <v>234</v>
+      <c r="L24" s="28" t="s">
+        <v>240</v>
       </c>
       <c r="M24" s="13"/>
     </row>
@@ -4965,7 +4941,7 @@
       <c r="L26" s="20"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B27" s="15">
         <v>20</v>
       </c>
@@ -5061,7 +5037,7 @@
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
     </row>
-    <row r="30" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="15">
         <v>23</v>
       </c>
@@ -5108,23 +5084,23 @@
         <v>43288</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>196</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="J31" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="J31" s="14" t="s">
+      <c r="K31" s="24" t="s">
         <v>238</v>
-      </c>
-      <c r="K31" s="24" t="s">
-        <v>239</v>
       </c>
       <c r="L31" s="20"/>
       <c r="M31" s="13"/>
@@ -5227,7 +5203,7 @@
       <c r="C45" t="s">
         <v>227</v>
       </c>
-      <c r="D45" s="28">
+      <c r="D45" s="27">
         <v>8</v>
       </c>
     </row>
@@ -5235,7 +5211,7 @@
       <c r="C46" t="s">
         <v>225</v>
       </c>
-      <c r="D46" s="28">
+      <c r="D46" s="27">
         <v>4</v>
       </c>
     </row>
@@ -5243,7 +5219,7 @@
       <c r="C47" t="s">
         <v>227</v>
       </c>
-      <c r="D47" s="28">
+      <c r="D47" s="27">
         <v>8</v>
       </c>
     </row>
@@ -5251,7 +5227,7 @@
       <c r="C48" t="s">
         <v>228</v>
       </c>
-      <c r="D48" s="28">
+      <c r="D48" s="27">
         <v>3</v>
       </c>
     </row>
@@ -5259,30 +5235,30 @@
       <c r="C49" t="s">
         <v>230</v>
       </c>
-      <c r="D49" s="28">
+      <c r="D49" s="27">
         <f>SUM(D45:D48)</f>
         <v>23</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D50" s="28"/>
+      <c r="D50" s="27"/>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C51" t="s">
         <v>229</v>
       </c>
-      <c r="D51" s="28">
+      <c r="D51" s="27">
         <v>1.3</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D52" s="28"/>
+      <c r="D52" s="27"/>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
         <v>232</v>
       </c>
-      <c r="D53" s="28">
+      <c r="D53" s="27">
         <f>D49*D51</f>
         <v>29.900000000000002</v>
       </c>
@@ -5291,16 +5267,21 @@
       <c r="C54" t="s">
         <v>231</v>
       </c>
-      <c r="D54" s="28">
+      <c r="D54" s="27">
         <f>ROUND(D53/6,1)</f>
         <v>5</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D55" s="28"/>
+      <c r="D55" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="B7:M31">
+    <filterColumn colId="5">
+      <filters blank="1">
+        <dateGroupItem year="2018" month="7" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="6">
       <filters>
         <filter val="～6月4週目"/>
@@ -5311,152 +5292,152 @@
   </autoFilter>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B37:C37 B8:C28 E29:F30 E8:F27 E37:G37 E28 J8:M30 H8:I28 J37:M37">
-    <cfRule type="expression" dxfId="38" priority="43">
+    <cfRule type="expression" dxfId="29" priority="43">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G28">
-    <cfRule type="expression" dxfId="37" priority="42">
+    <cfRule type="expression" dxfId="28" priority="42">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="36" priority="41">
+    <cfRule type="expression" dxfId="27" priority="41">
       <formula>$F37="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="35" priority="40">
+    <cfRule type="expression" dxfId="26" priority="40">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="34" priority="39">
+    <cfRule type="expression" dxfId="25" priority="39">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="33" priority="36">
+    <cfRule type="expression" dxfId="24" priority="36">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="32" priority="37">
+    <cfRule type="expression" dxfId="23" priority="37">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="31" priority="35">
+    <cfRule type="expression" dxfId="22" priority="35">
       <formula>$F28="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="expression" dxfId="30" priority="34">
+    <cfRule type="expression" dxfId="21" priority="34">
       <formula>$F37="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="29" priority="32">
+    <cfRule type="expression" dxfId="20" priority="32">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="28" priority="31">
+    <cfRule type="expression" dxfId="19" priority="31">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="27" priority="30">
+    <cfRule type="expression" dxfId="18" priority="30">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="26" priority="28">
+    <cfRule type="expression" dxfId="17" priority="28">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="25" priority="27">
+    <cfRule type="expression" dxfId="16" priority="27">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="15" priority="26">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D30 D37">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="14" priority="24">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F31 J31:M31">
-    <cfRule type="expression" dxfId="22" priority="15">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="21" priority="14">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="20" priority="13">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="19" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="18" priority="11">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="16" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:F36 J32:M36">
-    <cfRule type="expression" dxfId="15" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:B36">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G36">
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H36">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:I36">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C36">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D36">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5481,9 +5462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B70"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5733,8 +5712,8 @@
   <dimension ref="A2:G38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6534,9 +6513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>

--- a/99.work/課題・気になる.xlsx
+++ b/99.work/課題・気になる.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="241">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -3103,75 +3103,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">単項目チェックの実装方針を決定する。
-・BeanValidationを利用するかどうか
-・クライアントとサーバーでの分け方
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0701　単項目チェックの仕様を決める必要がある（画面項目定義）
-</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>タン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ホウシン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケッテイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>タン</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>テイギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>～7月1週目（余裕があれば）</t>
     <rPh sb="2" eb="3">
       <t>ガツ</t>
@@ -3337,16 +3268,6 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対応中</t>
-    <rPh sb="0" eb="2">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3451,6 +3372,107 @@
     </rPh>
     <rPh sb="327" eb="329">
       <t>リュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">単項目チェックの実装方針を決定する。
+・BeanValidationを利用するかどうか
+・クライアントとサーバーでの分け方
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0701　単項目チェックの仕様を決める必要がある（画面項目定義）
+</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>タン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホウシン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>タン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0708（日）
+＞・BeanValidationを利用するかどうか
+利用する
+＞・クライアントとサーバーでの分け方
+WFS＿設計に記載済み
+</t>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3656,7 +3678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3714,6 +3736,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4235,7 +4266,7 @@
   <dimension ref="B2:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
       <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
@@ -4249,7 +4280,8 @@
     <col min="4" max="4" width="18.25" customWidth="1"/>
     <col min="5" max="6" width="7.125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14.375" customWidth="1"/>
-    <col min="9" max="10" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="29" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="59.625" customWidth="1"/>
     <col min="12" max="12" width="62.125" customWidth="1"/>
     <col min="13" max="13" width="61.75" customWidth="1"/>
@@ -4302,7 +4334,7 @@
       <c r="I7" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="30" t="s">
         <v>158</v>
       </c>
       <c r="K7" s="3" t="s">
@@ -4789,22 +4821,26 @@
         <v>178</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="G22" s="15"/>
+        <v>197</v>
+      </c>
+      <c r="G22" s="21">
+        <v>43290</v>
+      </c>
       <c r="H22" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="K22" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L22" s="15"/>
+      <c r="K22" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>240</v>
+      </c>
       <c r="M22" s="13"/>
     </row>
     <row r="23" spans="2:13" ht="54" hidden="1" x14ac:dyDescent="0.15">
@@ -4864,14 +4900,14 @@
       <c r="I24" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="J24" s="14" t="s">
+      <c r="J24" s="31" t="s">
         <v>159</v>
       </c>
       <c r="K24" s="15" t="s">
         <v>169</v>
       </c>
       <c r="L24" s="28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M24" s="13"/>
     </row>
@@ -4900,7 +4936,7 @@
       <c r="I25" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="31" t="s">
         <v>204</v>
       </c>
       <c r="K25" s="15" t="s">
@@ -5073,7 +5109,7 @@
       </c>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="15">
         <v>24</v>
       </c>
@@ -5084,23 +5120,23 @@
         <v>43288</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>196</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="J31" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="J31" s="14" t="s">
+      <c r="K31" s="24" t="s">
         <v>237</v>
-      </c>
-      <c r="K31" s="24" t="s">
-        <v>238</v>
       </c>
       <c r="L31" s="20"/>
       <c r="M31" s="13"/>
@@ -5114,7 +5150,7 @@
       <c r="G32" s="21"/>
       <c r="H32" s="15"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="14"/>
+      <c r="J32" s="31"/>
       <c r="K32" s="24"/>
       <c r="L32" s="20"/>
       <c r="M32" s="13"/>
@@ -5128,7 +5164,7 @@
       <c r="G33" s="21"/>
       <c r="H33" s="15"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="14"/>
+      <c r="J33" s="31"/>
       <c r="K33" s="24"/>
       <c r="L33" s="20"/>
       <c r="M33" s="13"/>
@@ -5142,7 +5178,7 @@
       <c r="G34" s="21"/>
       <c r="H34" s="15"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="14"/>
+      <c r="J34" s="31"/>
       <c r="K34" s="24"/>
       <c r="L34" s="20"/>
       <c r="M34" s="13"/>
@@ -5156,7 +5192,7 @@
       <c r="G35" s="21"/>
       <c r="H35" s="15"/>
       <c r="I35" s="13"/>
-      <c r="J35" s="14"/>
+      <c r="J35" s="31"/>
       <c r="K35" s="24"/>
       <c r="L35" s="20"/>
       <c r="M35" s="13"/>
@@ -5170,7 +5206,7 @@
       <c r="G36" s="21"/>
       <c r="H36" s="15"/>
       <c r="I36" s="13"/>
-      <c r="J36" s="14"/>
+      <c r="J36" s="31"/>
       <c r="K36" s="24"/>
       <c r="L36" s="20"/>
       <c r="M36" s="13"/>
@@ -5184,24 +5220,24 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
+      <c r="J37" s="31"/>
       <c r="K37" s="15"/>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.15">
       <c r="D44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D45" s="27">
         <v>8</v>
@@ -5209,7 +5245,7 @@
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D46" s="27">
         <v>4</v>
@@ -5217,7 +5253,7 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D47" s="27">
         <v>8</v>
@@ -5225,7 +5261,7 @@
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D48" s="27">
         <v>3</v>
@@ -5233,7 +5269,7 @@
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D49" s="27">
         <f>SUM(D45:D48)</f>
@@ -5245,7 +5281,7 @@
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D51" s="27">
         <v>1.3</v>
@@ -5256,7 +5292,7 @@
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D53" s="27">
         <f>D49*D51</f>
@@ -5265,7 +5301,7 @@
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D54" s="27">
         <f>ROUND(D53/6,1)</f>
@@ -5287,6 +5323,7 @@
         <filter val="～6月4週目"/>
         <filter val="～7月1週目"/>
         <filter val="～7月1週目（余裕があれば）"/>
+        <filter val="～7月2週目"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/99.work/課題・気になる.xlsx
+++ b/99.work/課題・気になる.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="243">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -3476,6 +3476,52 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>対応中</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0714（土）
+Spring、Jqeuryでajax通信を実現できることを確認。検索画面に描画する処理のサンプル実装を検討する。
+</t>
+    <rPh sb="5" eb="6">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -3484,7 +3530,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3571,6 +3617,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3678,7 +3731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3745,6 +3798,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4266,10 +4322,10 @@
   <dimension ref="B2:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4579,7 +4635,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="81" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:13" ht="81" x14ac:dyDescent="0.15">
       <c r="B15" s="15">
         <v>8</v>
       </c>
@@ -4593,7 +4649,7 @@
         <v>202</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15" t="s">
@@ -4608,7 +4664,9 @@
       <c r="K15" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="L15" s="13"/>
+      <c r="L15" s="32" t="s">
+        <v>242</v>
+      </c>
       <c r="M15" s="13"/>
     </row>
     <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
@@ -4743,7 +4801,7 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
     </row>
-    <row r="20" spans="2:13" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B20" s="15">
         <v>13</v>
       </c>
@@ -5324,6 +5382,7 @@
         <filter val="～7月1週目"/>
         <filter val="～7月1週目（余裕があれば）"/>
         <filter val="～7月2週目"/>
+        <filter val="～7月3週目"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/99.work/課題・気になる.xlsx
+++ b/99.work/課題・気になる.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="245">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -3487,9 +3487,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">0714（土）
+    <t>0714（土）
 Spring、Jqeuryでajax通信を実現できることを確認。検索画面に描画する処理のサンプル実装を検討する。
-</t>
+0715(日）
+ディーラ検索画面を対象にサンプル実装中。JSの文法確認に時間がかかっている。
+⇒完了</t>
     <rPh sb="5" eb="6">
       <t>ツチ</t>
     </rPh>
@@ -3520,7 +3522,47 @@
     <rPh sb="59" eb="61">
       <t>ケントウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <rPh sb="71" eb="72">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ブンポウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※esaで管理</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://iwatakhr69.esa.io/posts/80</t>
   </si>
 </sst>
 </file>
@@ -3530,7 +3572,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3731,7 +3773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3801,6 +3843,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4321,14 +4366,14 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="6.875" customWidth="1"/>
@@ -4343,7 +4388,7 @@
     <col min="13" max="13" width="61.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:13">
       <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
@@ -4351,21 +4396,21 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:13">
       <c r="B3" s="18"/>
       <c r="C3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13">
       <c r="C4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13">
       <c r="B5" s="18"/>
     </row>
-    <row r="7" spans="2:13" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" s="1" customFormat="1" ht="37.5" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -4403,7 +4448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13" hidden="1">
       <c r="B8" s="15">
         <v>1</v>
       </c>
@@ -4435,7 +4480,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="2:13" ht="40.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:13" ht="40.5" hidden="1">
       <c r="B9" s="15">
         <v>2</v>
       </c>
@@ -4467,7 +4512,7 @@
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" hidden="1">
       <c r="B10" s="15">
         <v>3</v>
       </c>
@@ -4499,7 +4544,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:13" hidden="1">
       <c r="B11" s="15">
         <v>4</v>
       </c>
@@ -4531,7 +4576,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" ht="27" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13" ht="27" hidden="1">
       <c r="B12" s="15">
         <v>5</v>
       </c>
@@ -4567,7 +4612,7 @@
       </c>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="148.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13" ht="148.5" hidden="1">
       <c r="B13" s="15">
         <v>6</v>
       </c>
@@ -4603,7 +4648,7 @@
       </c>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="2:13" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13" ht="94.5" hidden="1">
       <c r="B14" s="15">
         <v>7</v>
       </c>
@@ -4635,7 +4680,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="81" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:13" ht="108">
       <c r="B15" s="15">
         <v>8</v>
       </c>
@@ -4649,9 +4694,11 @@
         <v>202</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="G15" s="15"/>
+        <v>197</v>
+      </c>
+      <c r="G15" s="33">
+        <v>43296</v>
+      </c>
       <c r="H15" s="15" t="s">
         <v>207</v>
       </c>
@@ -4669,7 +4716,7 @@
       </c>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:13" hidden="1">
       <c r="B16" s="15">
         <v>9</v>
       </c>
@@ -4701,7 +4748,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" hidden="1">
       <c r="B17" s="15">
         <v>10</v>
       </c>
@@ -4733,7 +4780,7 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" hidden="1">
       <c r="B18" s="15">
         <v>11</v>
       </c>
@@ -4769,7 +4816,7 @@
       </c>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" spans="2:13" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" ht="94.5" hidden="1">
       <c r="B19" s="15">
         <v>12</v>
       </c>
@@ -4801,7 +4848,7 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
     </row>
-    <row r="20" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="67.5">
       <c r="B20" s="15">
         <v>13</v>
       </c>
@@ -4815,7 +4862,7 @@
         <v>174</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15" t="s">
@@ -4830,10 +4877,14 @@
       <c r="K20" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-    </row>
-    <row r="21" spans="2:13" ht="94.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="L20" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="94.5">
       <c r="B21" s="15">
         <v>14</v>
       </c>
@@ -4865,7 +4916,7 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
     </row>
-    <row r="22" spans="2:13" ht="81" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="81">
       <c r="B22" s="15">
         <v>15</v>
       </c>
@@ -4901,7 +4952,7 @@
       </c>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="2:13" ht="54" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:13" ht="54">
       <c r="B23" s="15">
         <v>16</v>
       </c>
@@ -4933,7 +4984,7 @@
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
     </row>
-    <row r="24" spans="2:13" ht="240.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="240.75" customHeight="1">
       <c r="B24" s="15">
         <v>17</v>
       </c>
@@ -4969,7 +5020,7 @@
       </c>
       <c r="M24" s="13"/>
     </row>
-    <row r="25" spans="2:13" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="186.75" customHeight="1">
       <c r="B25" s="15">
         <v>18</v>
       </c>
@@ -5005,7 +5056,7 @@
       </c>
       <c r="M25" s="13"/>
     </row>
-    <row r="26" spans="2:13" ht="108" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="108" hidden="1">
       <c r="B26" s="15">
         <v>19</v>
       </c>
@@ -5035,7 +5086,7 @@
       <c r="L26" s="20"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="2:13" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="67.5" hidden="1">
       <c r="B27" s="15">
         <v>20</v>
       </c>
@@ -5071,7 +5122,7 @@
       </c>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="2:13" ht="270" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="270" hidden="1">
       <c r="B28" s="15">
         <v>21</v>
       </c>
@@ -5099,7 +5150,7 @@
       <c r="L28" s="20"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="2:13" ht="67.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="67.5" hidden="1">
       <c r="B29" s="15">
         <v>22</v>
       </c>
@@ -5131,7 +5182,7 @@
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
     </row>
-    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1">
       <c r="B30" s="15">
         <v>23</v>
       </c>
@@ -5167,7 +5218,7 @@
       </c>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="121.5" customHeight="1">
       <c r="B31" s="15">
         <v>24</v>
       </c>
@@ -5199,7 +5250,7 @@
       <c r="L31" s="20"/>
       <c r="M31" s="13"/>
     </row>
-    <row r="32" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="121.5" customHeight="1">
       <c r="B32" s="15"/>
       <c r="C32" s="14"/>
       <c r="D32" s="26"/>
@@ -5213,7 +5264,7 @@
       <c r="L32" s="20"/>
       <c r="M32" s="13"/>
     </row>
-    <row r="33" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="121.5" customHeight="1">
       <c r="B33" s="15"/>
       <c r="C33" s="14"/>
       <c r="D33" s="26"/>
@@ -5227,7 +5278,7 @@
       <c r="L33" s="20"/>
       <c r="M33" s="13"/>
     </row>
-    <row r="34" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="121.5" customHeight="1">
       <c r="B34" s="15"/>
       <c r="C34" s="14"/>
       <c r="D34" s="26"/>
@@ -5241,7 +5292,7 @@
       <c r="L34" s="20"/>
       <c r="M34" s="13"/>
     </row>
-    <row r="35" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="121.5" customHeight="1">
       <c r="B35" s="15"/>
       <c r="C35" s="14"/>
       <c r="D35" s="26"/>
@@ -5255,7 +5306,7 @@
       <c r="L35" s="20"/>
       <c r="M35" s="13"/>
     </row>
-    <row r="36" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="121.5" customHeight="1">
       <c r="B36" s="15"/>
       <c r="C36" s="14"/>
       <c r="D36" s="26"/>
@@ -5269,7 +5320,7 @@
       <c r="L36" s="20"/>
       <c r="M36" s="13"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13">
       <c r="B37" s="15"/>
       <c r="C37" s="14"/>
       <c r="D37" s="13"/>
@@ -5283,17 +5334,17 @@
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13">
       <c r="C43" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13">
       <c r="D44" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13">
       <c r="C45" t="s">
         <v>226</v>
       </c>
@@ -5301,7 +5352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:13">
       <c r="C46" t="s">
         <v>224</v>
       </c>
@@ -5309,7 +5360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13">
       <c r="C47" t="s">
         <v>226</v>
       </c>
@@ -5317,7 +5368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:13">
       <c r="C48" t="s">
         <v>227</v>
       </c>
@@ -5325,7 +5376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:4">
       <c r="C49" t="s">
         <v>229</v>
       </c>
@@ -5334,10 +5385,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:4">
       <c r="D50" s="27"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:4">
       <c r="C51" t="s">
         <v>228</v>
       </c>
@@ -5345,10 +5396,10 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:4">
       <c r="D52" s="27"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:4">
       <c r="C53" t="s">
         <v>231</v>
       </c>
@@ -5357,7 +5408,7 @@
         <v>29.900000000000002</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:4">
       <c r="C54" t="s">
         <v>230</v>
       </c>
@@ -5366,7 +5417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:4">
       <c r="D55" s="27"/>
     </row>
   </sheetData>
@@ -5383,6 +5434,7 @@
         <filter val="～7月1週目（余裕があれば）"/>
         <filter val="～7月2週目"/>
         <filter val="～7月3週目"/>
+        <filter val="～7月4週目"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5541,7 +5593,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>else!$A$1:$A$7</xm:f>
@@ -5560,238 +5612,238 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="57.75" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2">
       <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2">
       <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:2">
       <c r="B13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:2">
       <c r="B16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2">
       <c r="B21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2">
       <c r="B23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2">
       <c r="B24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:2">
       <c r="B25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:2">
       <c r="B28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:2">
       <c r="B29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:2">
       <c r="B30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:2">
       <c r="B32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:2">
       <c r="B35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:2">
       <c r="B36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:2">
       <c r="B37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:2">
       <c r="B38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:2">
       <c r="B39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:2">
       <c r="B40" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:2">
       <c r="B41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:2">
       <c r="B44" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:2">
       <c r="B45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:2">
       <c r="B46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:2">
       <c r="B49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:2">
       <c r="B50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:2">
       <c r="B51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:2">
       <c r="B53" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:2">
       <c r="B54" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:2">
       <c r="B56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:2">
       <c r="B57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:2">
       <c r="B59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:2">
       <c r="B61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:2">
       <c r="B62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:2">
       <c r="B64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:2">
       <c r="B66" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:2">
       <c r="B67" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:2">
       <c r="B70" t="s">
         <v>65</v>
       </c>
@@ -5812,7 +5864,7 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -5823,12 +5875,12 @@
     <col min="7" max="7" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="B2" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="43.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5851,7 +5903,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="94.5">
       <c r="A4" s="11">
         <f>ROW()-3</f>
         <v>1</v>
@@ -5873,7 +5925,7 @@
       </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="8">
         <f t="shared" ref="A5:A38" si="0">ROW()-3</f>
         <v>2</v>
@@ -5895,7 +5947,7 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5917,7 +5969,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="67.5">
       <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5939,7 +5991,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="60.75" customHeight="1">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5961,7 +6013,7 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="81" customHeight="1">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5983,7 +6035,7 @@
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="60.75" customHeight="1">
       <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6005,7 +6057,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="60.75" customHeight="1">
       <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6027,7 +6079,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="40.5">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6049,7 +6101,7 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6071,7 +6123,7 @@
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="67.5">
       <c r="A14" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6093,7 +6145,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="54">
       <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6115,7 +6167,7 @@
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="67.5">
       <c r="A16" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6137,7 +6189,7 @@
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="40.5">
       <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6159,7 +6211,7 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="27">
       <c r="A18" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6181,7 +6233,7 @@
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="27">
       <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6203,7 +6255,7 @@
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6225,7 +6277,7 @@
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="81">
       <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6247,7 +6299,7 @@
       </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="81" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="81">
       <c r="A22" s="8">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6269,7 +6321,7 @@
       </c>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="67.5">
       <c r="A23" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6291,7 +6343,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="40.5">
       <c r="A24" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6313,7 +6365,7 @@
       </c>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="27">
       <c r="A25" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6333,7 +6385,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="40.5">
       <c r="A26" s="8">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6355,7 +6407,7 @@
       </c>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="54">
       <c r="A27" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6377,7 +6429,7 @@
       </c>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="27">
       <c r="A28" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6399,7 +6451,7 @@
       </c>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="54">
       <c r="A29" s="8">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6421,7 +6473,7 @@
       </c>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="54">
       <c r="A30" s="8">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6443,7 +6495,7 @@
       </c>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="40.5">
       <c r="A31" s="8">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6465,7 +6517,7 @@
       </c>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="40.5">
       <c r="A32" s="8">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6487,7 +6539,7 @@
       </c>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="94.5">
       <c r="A33" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6509,7 +6561,7 @@
       </c>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7">
       <c r="A34" s="8">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6531,7 +6583,7 @@
       </c>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:7" ht="108" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="108">
       <c r="A35" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6553,7 +6605,7 @@
       </c>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="175.5">
       <c r="A36" s="8">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6573,7 +6625,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7">
       <c r="A37" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6585,7 +6637,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6611,39 +6663,39 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>185</v>
       </c>

--- a/99.work/課題・気になる.xlsx
+++ b/99.work/課題・気になる.xlsx
@@ -8,12 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="課題整理_0609" sheetId="5" r:id="rId1"/>
-    <sheet name="「課題・気になる」から転記" sheetId="4" r:id="rId2"/>
-    <sheet name="課題・気になる" sheetId="2" r:id="rId3"/>
-    <sheet name="else" sheetId="9" r:id="rId4"/>
+    <sheet name="No14" sheetId="10" r:id="rId2"/>
+    <sheet name="「課題・気になる」から転記" sheetId="4" r:id="rId3"/>
+    <sheet name="課題・気になる" sheetId="2" r:id="rId4"/>
+    <sheet name="else" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">課題・気になる!$A$3:$G$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">課題・気になる!$A$3:$G$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">課題整理_0609!$B$7:$M$31</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="259">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -2036,53 +2037,6 @@
     </rPh>
     <rPh sb="51" eb="53">
       <t>ジサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Logicクラスの分け方を検討する
-・コントローラ→画面単位
-・ロジック→機能単位
-上記のように現時点（0609）で考えているので、必要ならパッケージ構成も見直す。
-</t>
-    <rPh sb="9" eb="10">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケントウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>ゲンジテン</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ミナオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3564,6 +3518,200 @@
   <si>
     <t>https://iwatakhr69.esa.io/posts/80</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Logicクラスの分け方を検討する
+・コントローラ→画面単位
+・ロジック→機能単位
+上記のように現時点（0609）で考えているので、必要ならパッケージ構成も見直す。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0729　パッケージ分け方が機能毎がかMVCの役割毎か検討すること
+シート「N014」参照
+</t>
+    </r>
+    <rPh sb="9" eb="10">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>ゲンジテン</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能名</t>
+  </si>
+  <si>
+    <t>∟service</t>
+  </si>
+  <si>
+    <t>∟logic</t>
+  </si>
+  <si>
+    <t>∟dao</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>　∟機能１</t>
+  </si>
+  <si>
+    <t>　∟機能２</t>
+  </si>
+  <si>
+    <t>Dao</t>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Logic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⇒0729時点、こっちがいいかな？？、下はスッキリするがこのアプリ自体が趣味制作なので、将来的に機能の追加変更を考えたときに先に機能がくるほうがいい</t>
+    <rPh sb="5" eb="7">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シュミ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ショウライ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディーラ情報の新規登録と編集機能は1つにまとめる</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルと同じ。No14とあわせて対応する</t>
+    <rPh sb="5" eb="6">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -3572,7 +3720,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3852,7 +4000,105 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="44">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4363,17 +4609,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B2:M55"/>
+  <dimension ref="B2:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="6.875" customWidth="1"/>
@@ -4388,29 +4633,29 @@
     <col min="13" max="13" width="61.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B3" s="18"/>
       <c r="C3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" s="18"/>
     </row>
-    <row r="7" spans="2:13" s="1" customFormat="1" ht="37.5" customHeight="1">
+    <row r="7" spans="2:13" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -4418,22 +4663,22 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J7" s="30" t="s">
         <v>158</v>
@@ -4442,13 +4687,13 @@
         <v>3</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:13" hidden="1">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" s="15">
         <v>1</v>
       </c>
@@ -4462,13 +4707,13 @@
         <v>164</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="13" t="s">
@@ -4480,7 +4725,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
-    <row r="9" spans="2:13" ht="40.5" hidden="1">
+    <row r="9" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B9" s="15">
         <v>2</v>
       </c>
@@ -4491,17 +4736,17 @@
         <v>43276</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>159</v>
@@ -4512,7 +4757,7 @@
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="2:13" hidden="1">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B10" s="15">
         <v>3</v>
       </c>
@@ -4526,13 +4771,13 @@
         <v>164</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13" t="s">
@@ -4544,7 +4789,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="2:13" hidden="1">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B11" s="15">
         <v>4</v>
       </c>
@@ -4558,13 +4803,13 @@
         <v>164</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13" t="s">
@@ -4576,7 +4821,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" ht="27" hidden="1">
+    <row r="12" spans="2:13" ht="27" x14ac:dyDescent="0.15">
       <c r="B12" s="15">
         <v>5</v>
       </c>
@@ -4587,32 +4832,32 @@
         <v>43276</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G12" s="21">
         <v>43278</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="148.5" hidden="1">
+    <row r="13" spans="2:13" ht="148.5" x14ac:dyDescent="0.15">
       <c r="B13" s="15">
         <v>6</v>
       </c>
@@ -4623,32 +4868,32 @@
         <v>43276</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G13" s="21">
         <v>43278</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>161</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="2:13" ht="94.5" hidden="1">
+    <row r="14" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B14" s="15">
         <v>7</v>
       </c>
@@ -4659,17 +4904,17 @@
         <v>43276</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>159</v>
@@ -4680,7 +4925,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="108">
+    <row r="15" spans="2:13" ht="108" x14ac:dyDescent="0.15">
       <c r="B15" s="15">
         <v>8</v>
       </c>
@@ -4691,19 +4936,19 @@
         <v>43276</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G15" s="33">
         <v>43296</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>159</v>
@@ -4712,11 +4957,11 @@
         <v>160</v>
       </c>
       <c r="L15" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="2:13" hidden="1">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B16" s="15">
         <v>9</v>
       </c>
@@ -4730,13 +4975,13 @@
         <v>164</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13" t="s">
@@ -4748,7 +4993,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="2:13" hidden="1">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B17" s="15">
         <v>10</v>
       </c>
@@ -4762,13 +5007,13 @@
         <v>164</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="13" t="s">
@@ -4780,7 +5025,7 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="2:13" hidden="1">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B18" s="15">
         <v>11</v>
       </c>
@@ -4791,32 +5036,32 @@
         <v>43276</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G18" s="21">
         <v>43278</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M18" s="13"/>
     </row>
-    <row r="19" spans="2:13" ht="94.5" hidden="1">
+    <row r="19" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B19" s="15">
         <v>12</v>
       </c>
@@ -4827,17 +5072,17 @@
         <v>43276</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>159</v>
@@ -4848,7 +5093,7 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
     </row>
-    <row r="20" spans="2:13" ht="67.5">
+    <row r="20" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B20" s="15">
         <v>13</v>
       </c>
@@ -4859,17 +5104,17 @@
         <v>43276</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>159</v>
@@ -4878,13 +5123,13 @@
         <v>166</v>
       </c>
       <c r="L20" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="M20" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="M20" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="94.5">
+    </row>
+    <row r="21" spans="2:13" ht="212.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="15">
         <v>14</v>
       </c>
@@ -4895,28 +5140,28 @@
         <v>43276</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>159</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
     </row>
-    <row r="22" spans="2:13" ht="81">
+    <row r="22" spans="2:13" ht="81" x14ac:dyDescent="0.15">
       <c r="B22" s="15">
         <v>15</v>
       </c>
@@ -4927,32 +5172,32 @@
         <v>43276</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G22" s="21">
         <v>43290</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J22" s="31" t="s">
         <v>159</v>
       </c>
       <c r="K22" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="L22" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="L22" s="15" t="s">
-        <v>240</v>
-      </c>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="2:13" ht="54">
+    <row r="23" spans="2:13" ht="54" x14ac:dyDescent="0.15">
       <c r="B23" s="15">
         <v>16</v>
       </c>
@@ -4963,28 +5208,28 @@
         <v>43276</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>159</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
     </row>
-    <row r="24" spans="2:13" ht="240.75" customHeight="1">
+    <row r="24" spans="2:13" ht="240.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="15">
         <v>17</v>
       </c>
@@ -4995,32 +5240,32 @@
         <v>43276</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G24" s="21">
         <v>43289</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J24" s="31" t="s">
         <v>159</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L24" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M24" s="13"/>
     </row>
-    <row r="25" spans="2:13" ht="186.75" customHeight="1">
+    <row r="25" spans="2:13" ht="186.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="15">
         <v>18</v>
       </c>
@@ -5031,32 +5276,32 @@
         <v>43276</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G25" s="21">
         <v>43282</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J25" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M25" s="13"/>
     </row>
-    <row r="26" spans="2:13" ht="108" hidden="1">
+    <row r="26" spans="2:13" ht="108" x14ac:dyDescent="0.15">
       <c r="B26" s="15">
         <v>19</v>
       </c>
@@ -5067,26 +5312,26 @@
         <v>43276</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J26" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="15" t="s">
         <v>190</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>191</v>
       </c>
       <c r="L26" s="20"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="2:13" ht="67.5" hidden="1">
+    <row r="27" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B27" s="15">
         <v>20</v>
       </c>
@@ -5097,32 +5342,32 @@
         <v>43276</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G27" s="21">
         <v>43278</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K27" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="L27" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="L27" s="20" t="s">
-        <v>194</v>
-      </c>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="2:13" ht="270" hidden="1">
+    <row r="28" spans="2:13" ht="270" x14ac:dyDescent="0.15">
       <c r="B28" s="15">
         <v>21</v>
       </c>
@@ -5133,24 +5378,24 @@
         <v>43276</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L28" s="20"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="2:13" ht="67.5" hidden="1">
+    <row r="29" spans="2:13" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B29" s="15">
         <v>22</v>
       </c>
@@ -5161,28 +5406,28 @@
         <v>43276</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>159</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
     </row>
-    <row r="30" spans="2:13" ht="121.5" hidden="1" customHeight="1">
+    <row r="30" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="15">
         <v>23</v>
       </c>
@@ -5193,32 +5438,32 @@
         <v>43278</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G30" s="21">
         <v>43281</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J30" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K30" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="K30" s="24" t="s">
-        <v>219</v>
-      </c>
       <c r="L30" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="2:13" ht="121.5" customHeight="1">
+    <row r="31" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="15">
         <v>24</v>
       </c>
@@ -5229,42 +5474,60 @@
         <v>43288</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G31" s="21"/>
       <c r="H31" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="J31" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="J31" s="31" t="s">
+      <c r="K31" s="24" t="s">
         <v>236</v>
-      </c>
-      <c r="K31" s="24" t="s">
-        <v>237</v>
       </c>
       <c r="L31" s="20"/>
       <c r="M31" s="13"/>
     </row>
-    <row r="32" spans="2:13" ht="121.5" customHeight="1">
-      <c r="B32" s="15"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15"/>
+    <row r="32" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="15">
+        <v>25</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="26">
+        <v>43310</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>195</v>
+      </c>
       <c r="G32" s="21"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="24"/>
+      <c r="H32" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="J32" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>258</v>
+      </c>
       <c r="L32" s="20"/>
       <c r="M32" s="13"/>
     </row>
-    <row r="33" spans="2:13" ht="121.5" customHeight="1">
+    <row r="33" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="15"/>
       <c r="C33" s="14"/>
       <c r="D33" s="26"/>
@@ -5278,7 +5541,7 @@
       <c r="L33" s="20"/>
       <c r="M33" s="13"/>
     </row>
-    <row r="34" spans="2:13" ht="121.5" customHeight="1">
+    <row r="34" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="15"/>
       <c r="C34" s="14"/>
       <c r="D34" s="26"/>
@@ -5292,7 +5555,7 @@
       <c r="L34" s="20"/>
       <c r="M34" s="13"/>
     </row>
-    <row r="35" spans="2:13" ht="121.5" customHeight="1">
+    <row r="35" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="15"/>
       <c r="C35" s="14"/>
       <c r="D35" s="26"/>
@@ -5306,7 +5569,7 @@
       <c r="L35" s="20"/>
       <c r="M35" s="13"/>
     </row>
-    <row r="36" spans="2:13" ht="121.5" customHeight="1">
+    <row r="36" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="15"/>
       <c r="C36" s="14"/>
       <c r="D36" s="26"/>
@@ -5320,285 +5583,318 @@
       <c r="L36" s="20"/>
       <c r="M36" s="13"/>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="15"/>
       <c r="C37" s="14"/>
-      <c r="D37" s="13"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="13"/>
       <c r="J37" s="31"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="13"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="20"/>
       <c r="M37" s="13"/>
     </row>
-    <row r="43" spans="2:13">
-      <c r="C43" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="D44" t="s">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B38" s="15"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="D45" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="C45" t="s">
+      <c r="D46" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>223</v>
+      </c>
+      <c r="D47" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
         <v>226</v>
       </c>
-      <c r="D45" s="27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="C46" t="s">
-        <v>224</v>
-      </c>
-      <c r="D46" s="27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13">
-      <c r="C47" t="s">
-        <v>226</v>
-      </c>
-      <c r="D47" s="27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13">
-      <c r="C48" t="s">
+      <c r="D49" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>228</v>
+      </c>
+      <c r="D50" s="27">
+        <f>SUM(D46:D49)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D51" s="27"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
         <v>227</v>
       </c>
-      <c r="D48" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4">
-      <c r="C49" t="s">
-        <v>229</v>
-      </c>
-      <c r="D49" s="27">
-        <f>SUM(D45:D48)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4">
-      <c r="D50" s="27"/>
-    </row>
-    <row r="51" spans="3:4">
-      <c r="C51" t="s">
-        <v>228</v>
-      </c>
-      <c r="D51" s="27">
+      <c r="D52" s="27">
         <v>1.3</v>
       </c>
     </row>
-    <row r="52" spans="3:4">
-      <c r="D52" s="27"/>
-    </row>
-    <row r="53" spans="3:4">
-      <c r="C53" t="s">
-        <v>231</v>
-      </c>
-      <c r="D53" s="27">
-        <f>D49*D51</f>
-        <v>29.900000000000002</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D53" s="27"/>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C54" t="s">
         <v>230</v>
       </c>
       <c r="D54" s="27">
-        <f>ROUND(D53/6,1)</f>
+        <f>D50*D52</f>
+        <v>29.900000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>229</v>
+      </c>
+      <c r="D55" s="27">
+        <f>ROUND(D54/6,1)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="3:4">
-      <c r="D55" s="27"/>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D56" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="B7:M31">
-    <filterColumn colId="5">
-      <filters blank="1">
-        <dateGroupItem year="2018" month="7" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="～6月4週目"/>
-        <filter val="～7月1週目"/>
-        <filter val="～7月1週目（余裕があれば）"/>
-        <filter val="～7月2週目"/>
-        <filter val="～7月3週目"/>
-        <filter val="～7月4週目"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B7:M31"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B37:C37 B8:C28 E29:F30 E8:F27 E37:G37 E28 J8:M30 H8:I28 J37:M37">
-    <cfRule type="expression" dxfId="29" priority="43">
+  <conditionalFormatting sqref="B38:C38 B8:C28 E29:F30 E8:F27 E38:G38 E28 J8:M30 H8:I28 J38:M38">
+    <cfRule type="expression" dxfId="43" priority="50">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G28">
-    <cfRule type="expression" dxfId="28" priority="42">
+    <cfRule type="expression" dxfId="42" priority="49">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="expression" dxfId="27" priority="41">
-      <formula>$F37="完了"</formula>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="expression" dxfId="41" priority="48">
+      <formula>$F38="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="expression" dxfId="26" priority="40">
+    <cfRule type="expression" dxfId="40" priority="47">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="25" priority="39">
+    <cfRule type="expression" dxfId="39" priority="46">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="24" priority="36">
+    <cfRule type="expression" dxfId="38" priority="43">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="23" priority="37">
+    <cfRule type="expression" dxfId="37" priority="44">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="expression" dxfId="22" priority="35">
+    <cfRule type="expression" dxfId="36" priority="42">
       <formula>$F28="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
-    <cfRule type="expression" dxfId="21" priority="34">
-      <formula>$F37="完了"</formula>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="expression" dxfId="35" priority="41">
+      <formula>$F38="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="20" priority="32">
+    <cfRule type="expression" dxfId="34" priority="39">
       <formula>$F29="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="19" priority="31">
+    <cfRule type="expression" dxfId="33" priority="38">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="expression" dxfId="18" priority="30">
+    <cfRule type="expression" dxfId="32" priority="37">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="17" priority="28">
+    <cfRule type="expression" dxfId="31" priority="35">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="16" priority="27">
+    <cfRule type="expression" dxfId="30" priority="34">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="15" priority="26">
+    <cfRule type="expression" dxfId="29" priority="33">
       <formula>$F30="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D30 D37">
-    <cfRule type="expression" dxfId="14" priority="24">
+  <conditionalFormatting sqref="D8:D30 D38">
+    <cfRule type="expression" dxfId="28" priority="31">
       <formula>$F8="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F31 J31:M31">
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="27" priority="22">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="26" priority="21">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="25" priority="20">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="24" priority="19">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="23" priority="18">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="22" priority="16">
       <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32:F36 J32:M36">
-    <cfRule type="expression" dxfId="7" priority="8">
+  <conditionalFormatting sqref="E33:F37 J33:M37">
+    <cfRule type="expression" dxfId="21" priority="15">
+      <formula>$F33="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:B37">
+    <cfRule type="expression" dxfId="20" priority="14">
+      <formula>$F33="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:G37">
+    <cfRule type="expression" dxfId="19" priority="13">
+      <formula>$F33="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33:H37">
+    <cfRule type="expression" dxfId="18" priority="12">
+      <formula>$F33="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33:I37">
+    <cfRule type="expression" dxfId="17" priority="11">
+      <formula>$F33="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33:C37">
+    <cfRule type="expression" dxfId="16" priority="10">
+      <formula>$F33="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D37">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>$F33="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="14" priority="8">
+      <formula>$F31="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:F32 J32:M32">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B36">
-    <cfRule type="expression" dxfId="6" priority="7">
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:G36">
-    <cfRule type="expression" dxfId="5" priority="6">
+  <conditionalFormatting sqref="G32">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32:H36">
-    <cfRule type="expression" dxfId="4" priority="5">
+  <conditionalFormatting sqref="H32">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:I36">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="I32">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C36">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$F32="完了"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D36">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="C32">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$F32="完了"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$F31="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>else!$A$1:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>F37:H37 E8:E37</xm:sqref>
+          <xm:sqref>F38:H38 E8:E38</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5608,242 +5904,332 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:C17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B70"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="57.75" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
         <v>65</v>
       </c>
@@ -5855,7 +6241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G38"/>
   <sheetViews>
@@ -5864,7 +6250,7 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -5875,12 +6261,12 @@
     <col min="7" max="7" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="43.5" customHeight="1">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5903,7 +6289,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="94.5">
+    <row r="4" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <f>ROW()-3</f>
         <v>1</v>
@@ -5925,7 +6311,7 @@
       </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <f t="shared" ref="A5:A38" si="0">ROW()-3</f>
         <v>2</v>
@@ -5947,7 +6333,7 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5969,7 +6355,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="67.5">
+    <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5991,7 +6377,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="60.75" customHeight="1">
+    <row r="8" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6013,7 +6399,7 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" ht="81" customHeight="1">
+    <row r="9" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6035,7 +6421,7 @@
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" ht="60.75" customHeight="1">
+    <row r="10" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6057,7 +6443,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" ht="60.75" customHeight="1">
+    <row r="11" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6079,7 +6465,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" ht="40.5">
+    <row r="12" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6101,7 +6487,7 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6123,7 +6509,7 @@
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" ht="67.5">
+    <row r="14" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6145,7 +6531,7 @@
       </c>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" ht="54">
+    <row r="15" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6167,7 +6553,7 @@
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" ht="67.5">
+    <row r="16" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6189,7 +6575,7 @@
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" ht="40.5">
+    <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6211,7 +6597,7 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" ht="27">
+    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6233,7 +6619,7 @@
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" ht="27">
+    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6255,7 +6641,7 @@
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6277,7 +6663,7 @@
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="81">
+    <row r="21" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6299,7 +6685,7 @@
       </c>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="81">
+    <row r="22" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6321,7 +6707,7 @@
       </c>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="1:7" ht="67.5">
+    <row r="23" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6343,7 +6729,7 @@
       </c>
       <c r="G23" s="8"/>
     </row>
-    <row r="24" spans="1:7" ht="40.5">
+    <row r="24" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6365,7 +6751,7 @@
       </c>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:7" ht="27">
+    <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6385,7 +6771,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:7" ht="40.5">
+    <row r="26" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6407,7 +6793,7 @@
       </c>
       <c r="G26" s="8"/>
     </row>
-    <row r="27" spans="1:7" ht="54">
+    <row r="27" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6429,7 +6815,7 @@
       </c>
       <c r="G27" s="8"/>
     </row>
-    <row r="28" spans="1:7" ht="27">
+    <row r="28" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6451,7 +6837,7 @@
       </c>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" spans="1:7" ht="54">
+    <row r="29" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A29" s="8">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6473,7 +6859,7 @@
       </c>
       <c r="G29" s="8"/>
     </row>
-    <row r="30" spans="1:7" ht="54">
+    <row r="30" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A30" s="8">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6495,7 +6881,7 @@
       </c>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="1:7" ht="40.5">
+    <row r="31" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6517,7 +6903,7 @@
       </c>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:7" ht="40.5">
+    <row r="32" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6539,7 +6925,7 @@
       </c>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="1:7" ht="94.5">
+    <row r="33" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6561,7 +6947,7 @@
       </c>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6583,7 +6969,7 @@
       </c>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="1:7" ht="108">
+    <row r="35" spans="1:7" ht="108" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6605,7 +6991,7 @@
       </c>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="1:7" ht="175.5">
+    <row r="36" spans="1:7" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6625,7 +7011,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6637,7 +7023,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6657,47 +7043,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
